--- a/3_Component_Results/OPA/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/OPA/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Q0</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -440,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,296 +474,320 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.4963948798677646</v>
+        <v>3.534544165640355</v>
       </c>
       <c r="C2">
-        <v>0.9939133157012632</v>
+        <v>0.6043611617905069</v>
       </c>
       <c r="D2">
-        <v>0.3985919732244694</v>
+        <v>0.3677908113261881</v>
       </c>
       <c r="E2">
-        <v>0.7627277865358761</v>
+        <v>0.6933852433072614</v>
       </c>
       <c r="F2">
-        <v>1.184322899759067</v>
+        <v>1.257110715986727</v>
       </c>
       <c r="G2">
-        <v>1.034839871199764</v>
+        <v>0.9709551209826655</v>
       </c>
       <c r="H2">
-        <v>1.088646979932846</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>1.092800686503665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.4975184358334985</v>
+        <v>0.1079662819227423</v>
       </c>
       <c r="C3">
-        <v>-0.09780290664329527</v>
+        <v>-0.1286040685415766</v>
       </c>
       <c r="D3">
-        <v>0.2663329066681115</v>
+        <v>0.1969903634394967</v>
       </c>
       <c r="E3">
-        <v>0.6879280198913023</v>
+        <v>0.7607158361189619</v>
       </c>
       <c r="F3">
-        <v>0.5384449913319997</v>
+        <v>0.4745602411149009</v>
       </c>
       <c r="G3">
-        <v>0.5922521000650818</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.5964058066359001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.5953213424767938</v>
+        <v>-0.6261225043750751</v>
       </c>
       <c r="C4">
-        <v>-0.231185529165387</v>
+        <v>-0.3005280723940018</v>
       </c>
       <c r="D4">
-        <v>0.1904095840578037</v>
+        <v>0.2631974002854633</v>
       </c>
       <c r="E4">
-        <v>0.04092655549850122</v>
+        <v>-0.02295819471859767</v>
       </c>
       <c r="F4">
-        <v>0.09473366423158319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.09888737080240162</v>
+      </c>
+      <c r="G4">
+        <v>-0.3347921734358863</v>
+      </c>
+      <c r="H4">
+        <v>1.551084065451221</v>
+      </c>
+      <c r="I4">
+        <v>-0.1524750000452286</v>
+      </c>
+      <c r="J4">
+        <v>-0.2080565315694543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>0.3641358133114068</v>
+        <v>0.294793270082792</v>
       </c>
       <c r="C5">
-        <v>0.7857309265345975</v>
+        <v>0.8585187427622571</v>
       </c>
       <c r="D5">
-        <v>0.636247897975295</v>
+        <v>0.5723631477581961</v>
       </c>
       <c r="E5">
-        <v>0.6900550067083771</v>
+        <v>0.6942087132791954</v>
       </c>
       <c r="F5">
-        <v>0.3653059715781097</v>
+        <v>0.2605291690409075</v>
       </c>
       <c r="G5">
-        <v>0.7006729765566462</v>
+        <v>2.146405407928015</v>
       </c>
       <c r="H5">
-        <v>0.7942140979369015</v>
+        <v>0.4428463424315652</v>
       </c>
       <c r="I5">
-        <v>0.3113671986232163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.3872648109073396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.4215951132231908</v>
+        <v>0.4943829294508504</v>
       </c>
       <c r="C6">
-        <v>0.2721120846638883</v>
+        <v>0.2082273344467894</v>
       </c>
       <c r="D6">
-        <v>0.3259191933969702</v>
+        <v>0.3300728999677887</v>
       </c>
       <c r="E6">
-        <v>0.00117015826670297</v>
+        <v>-0.1036066442704993</v>
       </c>
       <c r="F6">
-        <v>0.3365371632452395</v>
+        <v>1.782269594616608</v>
       </c>
       <c r="G6">
-        <v>0.4300782846254947</v>
+        <v>0.07871052912015841</v>
       </c>
       <c r="H6">
-        <v>-0.0527686146881905</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.02312899759593279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.1494830285593025</v>
+        <v>-0.2133677787764014</v>
       </c>
       <c r="C7">
-        <v>-0.09567591982622053</v>
+        <v>-0.09152221325540211</v>
       </c>
       <c r="D7">
-        <v>-0.4204249549564878</v>
+        <v>-0.52520175749369</v>
       </c>
       <c r="E7">
-        <v>-0.0850579499779513</v>
+        <v>1.360674481393417</v>
       </c>
       <c r="F7">
-        <v>0.008483171402303896</v>
+        <v>-0.3428845841030324</v>
       </c>
       <c r="G7">
-        <v>-0.4743637279113813</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>-0.398466115627258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.05380710873308198</v>
+        <v>0.0579608153039004</v>
       </c>
       <c r="C8">
-        <v>-0.2709419263971853</v>
+        <v>-0.3757187289343875</v>
       </c>
       <c r="D8">
-        <v>0.06442507858135121</v>
+        <v>1.51015750995272</v>
       </c>
       <c r="E8">
-        <v>0.1579661999616064</v>
+        <v>-0.1934015555437298</v>
       </c>
       <c r="F8">
-        <v>-0.3248806993520788</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>-0.2489830870679555</v>
+      </c>
+      <c r="G8">
+        <v>0.5379667755061348</v>
+      </c>
+      <c r="H8">
+        <v>-1.651730635291429</v>
+      </c>
+      <c r="I8">
+        <v>-0.8137395822194835</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.3247490351302673</v>
+        <v>-0.4295258376674695</v>
       </c>
       <c r="C9">
-        <v>0.01061796984826924</v>
+        <v>1.456350401219638</v>
       </c>
       <c r="D9">
-        <v>0.1041590912285244</v>
+        <v>-0.2472086642768118</v>
       </c>
       <c r="E9">
-        <v>-0.3786878080851607</v>
+        <v>-0.3027901958010374</v>
       </c>
       <c r="F9">
-        <v>-0.2690992254876789</v>
+        <v>0.4841596667730528</v>
       </c>
       <c r="G9">
-        <v>-0.239939782981537</v>
+        <v>-1.705537744024511</v>
       </c>
       <c r="H9">
-        <v>-0.4386342511711376</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>-0.8675466909525655</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.3353670049785365</v>
+        <v>1.781099436349905</v>
       </c>
       <c r="C10">
-        <v>0.4289081263587917</v>
+        <v>0.07754037085345544</v>
       </c>
       <c r="D10">
-        <v>-0.05393877295489347</v>
+        <v>0.02195883932922982</v>
       </c>
       <c r="E10">
-        <v>0.05564980964258837</v>
+        <v>0.8089087019033201</v>
       </c>
       <c r="F10">
-        <v>0.08480925214873025</v>
+        <v>-1.380788708894244</v>
       </c>
       <c r="G10">
-        <v>-0.1138852160408703</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>-0.5427976558222982</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.09354112138025519</v>
+        <v>-0.2578266341250811</v>
       </c>
       <c r="C11">
-        <v>-0.38930577793343</v>
+        <v>-0.3134081656493067</v>
       </c>
       <c r="D11">
-        <v>-0.2797171953359481</v>
+        <v>0.4735416969247836</v>
       </c>
       <c r="E11">
-        <v>-0.2505577528298062</v>
+        <v>-1.716155713872781</v>
       </c>
       <c r="F11">
-        <v>-0.4492522210194068</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>-0.8781646608008347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.4828468993136852</v>
+        <v>-0.4069492870295619</v>
       </c>
       <c r="C12">
-        <v>-0.3732583167162034</v>
+        <v>0.3800005755445284</v>
       </c>
       <c r="D12">
-        <v>-0.3440988742100615</v>
+        <v>-1.809696835253036</v>
       </c>
       <c r="E12">
-        <v>-0.542793342399662</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>-0.9717057821810899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.1095885825974818</v>
+        <v>0.8628474748582136</v>
       </c>
       <c r="C13">
-        <v>0.1387480251036237</v>
+        <v>-1.326849935939351</v>
       </c>
       <c r="D13">
-        <v>-0.05994644308597685</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>-0.4888588828674048</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.02915944250614189</v>
+        <v>-1.436438518536832</v>
       </c>
       <c r="C14">
-        <v>-0.1695350256834587</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>-0.5984474654648866</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.1986944681896006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>-0.6276069079710285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/OPA/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/OPA/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -483,25 +483,25 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>3.534544165640355</v>
+        <v>0.4963948798677646</v>
       </c>
       <c r="C2">
-        <v>0.6043611617905069</v>
+        <v>0.9939133157012632</v>
       </c>
       <c r="D2">
-        <v>0.3677908113261881</v>
+        <v>0.3985919732244694</v>
       </c>
       <c r="E2">
-        <v>0.6933852433072614</v>
+        <v>0.7627277865358761</v>
       </c>
       <c r="F2">
-        <v>1.257110715986727</v>
+        <v>1.184322899759067</v>
       </c>
       <c r="G2">
-        <v>0.9709551209826655</v>
+        <v>1.034839871199764</v>
       </c>
       <c r="H2">
-        <v>1.092800686503665</v>
+        <v>1.088646979932846</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -509,22 +509,22 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.1079662819227423</v>
+        <v>0.4975184358334985</v>
       </c>
       <c r="C3">
-        <v>-0.1286040685415766</v>
+        <v>-0.09780290664329527</v>
       </c>
       <c r="D3">
-        <v>0.1969903634394967</v>
+        <v>0.2663329066681115</v>
       </c>
       <c r="E3">
-        <v>0.7607158361189619</v>
+        <v>0.6879280198913023</v>
       </c>
       <c r="F3">
-        <v>0.4745602411149009</v>
+        <v>0.5384449913319997</v>
       </c>
       <c r="G3">
-        <v>0.5964058066359001</v>
+        <v>0.5922521000650818</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -532,31 +532,31 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.6261225043750751</v>
+        <v>-0.5953213424767938</v>
       </c>
       <c r="C4">
-        <v>-0.3005280723940018</v>
+        <v>-0.231185529165387</v>
       </c>
       <c r="D4">
-        <v>0.2631974002854633</v>
+        <v>0.1904095840578037</v>
       </c>
       <c r="E4">
-        <v>-0.02295819471859767</v>
+        <v>0.04092655549850122</v>
       </c>
       <c r="F4">
-        <v>0.09888737080240162</v>
+        <v>0.09473366423158319</v>
       </c>
       <c r="G4">
-        <v>-0.3347921734358863</v>
+        <v>-0.2300153708986841</v>
       </c>
       <c r="H4">
-        <v>1.551084065451221</v>
+        <v>0.1053516340798524</v>
       </c>
       <c r="I4">
-        <v>-0.1524750000452286</v>
+        <v>0.1988927554601076</v>
       </c>
       <c r="J4">
-        <v>-0.2080565315694543</v>
+        <v>-0.2839541438535775</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -564,28 +564,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.294793270082792</v>
+        <v>0.3641358133114068</v>
       </c>
       <c r="C5">
-        <v>0.8585187427622571</v>
+        <v>0.7857309265345975</v>
       </c>
       <c r="D5">
-        <v>0.5723631477581961</v>
+        <v>0.636247897975295</v>
       </c>
       <c r="E5">
-        <v>0.6942087132791954</v>
+        <v>0.6900550067083771</v>
       </c>
       <c r="F5">
-        <v>0.2605291690409075</v>
+        <v>0.3653059715781097</v>
       </c>
       <c r="G5">
-        <v>2.146405407928015</v>
+        <v>0.7006729765566462</v>
       </c>
       <c r="H5">
-        <v>0.4428463424315652</v>
+        <v>0.7942140979369015</v>
       </c>
       <c r="I5">
-        <v>0.3872648109073396</v>
+        <v>0.3113671986232163</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -593,25 +593,25 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.4943829294508504</v>
+        <v>0.4215951132231908</v>
       </c>
       <c r="C6">
-        <v>0.2082273344467894</v>
+        <v>0.2721120846638883</v>
       </c>
       <c r="D6">
-        <v>0.3300728999677887</v>
+        <v>0.3259191933969702</v>
       </c>
       <c r="E6">
-        <v>-0.1036066442704993</v>
+        <v>0.00117015826670297</v>
       </c>
       <c r="F6">
-        <v>1.782269594616608</v>
+        <v>0.3365371632452395</v>
       </c>
       <c r="G6">
-        <v>0.07871052912015841</v>
+        <v>0.4300782846254947</v>
       </c>
       <c r="H6">
-        <v>0.02312899759593279</v>
+        <v>-0.0527686146881905</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,22 +619,22 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.2133677787764014</v>
+        <v>-0.1494830285593025</v>
       </c>
       <c r="C7">
-        <v>-0.09152221325540211</v>
+        <v>-0.09567591982622053</v>
       </c>
       <c r="D7">
-        <v>-0.52520175749369</v>
+        <v>-0.4204249549564878</v>
       </c>
       <c r="E7">
-        <v>1.360674481393417</v>
+        <v>-0.0850579499779513</v>
       </c>
       <c r="F7">
-        <v>-0.3428845841030324</v>
+        <v>0.008483171402303896</v>
       </c>
       <c r="G7">
-        <v>-0.398466115627258</v>
+        <v>-0.4743637279113813</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -642,28 +642,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.0579608153039004</v>
+        <v>0.05380710873308198</v>
       </c>
       <c r="C8">
-        <v>-0.3757187289343875</v>
+        <v>-0.2709419263971853</v>
       </c>
       <c r="D8">
-        <v>1.51015750995272</v>
+        <v>0.06442507858135121</v>
       </c>
       <c r="E8">
-        <v>-0.1934015555437298</v>
+        <v>0.1579661999616064</v>
       </c>
       <c r="F8">
-        <v>-0.2489830870679555</v>
+        <v>-0.3248806993520788</v>
       </c>
       <c r="G8">
-        <v>0.5379667755061348</v>
+        <v>-0.2152921167545969</v>
       </c>
       <c r="H8">
-        <v>-1.651730635291429</v>
+        <v>-0.186132674248455</v>
       </c>
       <c r="I8">
-        <v>-0.8137395822194835</v>
+        <v>-0.3848271424380556</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -671,25 +671,25 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.4295258376674695</v>
+        <v>-0.3247490351302673</v>
       </c>
       <c r="C9">
-        <v>1.456350401219638</v>
+        <v>0.01061796984826924</v>
       </c>
       <c r="D9">
-        <v>-0.2472086642768118</v>
+        <v>0.1041590912285244</v>
       </c>
       <c r="E9">
-        <v>-0.3027901958010374</v>
+        <v>-0.3786878080851607</v>
       </c>
       <c r="F9">
-        <v>0.4841596667730528</v>
+        <v>-0.2690992254876789</v>
       </c>
       <c r="G9">
-        <v>-1.705537744024511</v>
+        <v>-0.239939782981537</v>
       </c>
       <c r="H9">
-        <v>-0.8675466909525655</v>
+        <v>-0.4386342511711376</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -697,22 +697,22 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>1.781099436349905</v>
+        <v>0.3353670049785365</v>
       </c>
       <c r="C10">
-        <v>0.07754037085345544</v>
+        <v>0.4289081263587917</v>
       </c>
       <c r="D10">
-        <v>0.02195883932922982</v>
+        <v>-0.05393877295489347</v>
       </c>
       <c r="E10">
-        <v>0.8089087019033201</v>
+        <v>0.05564980964258837</v>
       </c>
       <c r="F10">
-        <v>-1.380788708894244</v>
+        <v>0.08480925214873025</v>
       </c>
       <c r="G10">
-        <v>-0.5427976558222982</v>
+        <v>-0.1138852160408703</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -720,19 +720,19 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.2578266341250811</v>
+        <v>0.09354112138025519</v>
       </c>
       <c r="C11">
-        <v>-0.3134081656493067</v>
+        <v>-0.38930577793343</v>
       </c>
       <c r="D11">
-        <v>0.4735416969247836</v>
+        <v>-0.2797171953359481</v>
       </c>
       <c r="E11">
-        <v>-1.716155713872781</v>
+        <v>-0.2505577528298062</v>
       </c>
       <c r="F11">
-        <v>-0.8781646608008347</v>
+        <v>-0.4492522210194068</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -740,16 +740,16 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.4069492870295619</v>
+        <v>-0.4828468993136852</v>
       </c>
       <c r="C12">
-        <v>0.3800005755445284</v>
+        <v>-0.3732583167162034</v>
       </c>
       <c r="D12">
-        <v>-1.809696835253036</v>
+        <v>-0.3440988742100615</v>
       </c>
       <c r="E12">
-        <v>-0.9717057821810899</v>
+        <v>-0.542793342399662</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -757,13 +757,13 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>0.8628474748582136</v>
+        <v>0.1095885825974818</v>
       </c>
       <c r="C13">
-        <v>-1.326849935939351</v>
+        <v>0.1387480251036237</v>
       </c>
       <c r="D13">
-        <v>-0.4888588828674048</v>
+        <v>-0.05994644308597685</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -771,10 +771,10 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>-1.436438518536832</v>
+        <v>0.02915944250614189</v>
       </c>
       <c r="C14">
-        <v>-0.5984474654648866</v>
+        <v>-0.1695350256834587</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -782,7 +782,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.6276069079710285</v>
+        <v>-0.1986944681896006</v>
       </c>
     </row>
     <row r="16" spans="1:10">

--- a/3_Component_Results/OPA/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/OPA/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -41,6 +41,120 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -443,13 +557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,317 +591,1663 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
+        <v>6.235374053902774</v>
+      </c>
+      <c r="C2">
+        <v>-0.6588145558456651</v>
+      </c>
+      <c r="D2">
+        <v>0.2476226530800152</v>
+      </c>
+      <c r="E2">
+        <v>1.103499892488202</v>
+      </c>
+      <c r="F2">
+        <v>0.1965604259001879</v>
+      </c>
+      <c r="G2">
+        <v>0.5165088048693751</v>
+      </c>
+      <c r="H2">
+        <v>0.2317110028784559</v>
+      </c>
+      <c r="I2">
+        <v>0.97137660635697</v>
+      </c>
+      <c r="J2">
+        <v>2.833785504382945</v>
+      </c>
+      <c r="K2">
+        <v>1.128994013825221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>-5.987751400822759</v>
+      </c>
+      <c r="C3">
+        <v>-5.131874161414572</v>
+      </c>
+      <c r="D3">
+        <v>-6.038813628002586</v>
+      </c>
+      <c r="E3">
+        <v>-5.718865249033399</v>
+      </c>
+      <c r="F3">
+        <v>-6.003663051024319</v>
+      </c>
+      <c r="G3">
+        <v>-5.263997447545804</v>
+      </c>
+      <c r="H3">
+        <v>-3.401588549519829</v>
+      </c>
+      <c r="I3">
+        <v>-5.106380040077553</v>
+      </c>
+      <c r="J3">
+        <v>-5.083794702064267</v>
+      </c>
+      <c r="K3">
+        <v>-5.187472980084891</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>-0.05106222717982734</v>
+      </c>
+      <c r="C4">
+        <v>0.2688861517893599</v>
+      </c>
+      <c r="D4">
+        <v>-0.01591165020155927</v>
+      </c>
+      <c r="E4">
+        <v>0.7237539532769548</v>
+      </c>
+      <c r="F4">
+        <v>2.58616285130293</v>
+      </c>
+      <c r="G4">
+        <v>0.8813713607452058</v>
+      </c>
+      <c r="H4">
+        <v>0.9039566987584917</v>
+      </c>
+      <c r="I4">
+        <v>0.8002784207378677</v>
+      </c>
+      <c r="J4">
+        <v>1.36307484398499</v>
+      </c>
+      <c r="K4">
+        <v>1.341245446113519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0.03515057697826807</v>
+      </c>
+      <c r="C5">
+        <v>0.7748161804567821</v>
+      </c>
+      <c r="D5">
+        <v>2.637225078482758</v>
+      </c>
+      <c r="E5">
+        <v>0.9324335879250332</v>
+      </c>
+      <c r="F5">
+        <v>0.9550189259383191</v>
+      </c>
+      <c r="G5">
+        <v>0.851340647917695</v>
+      </c>
+      <c r="H5">
+        <v>1.414137071164817</v>
+      </c>
+      <c r="I5">
+        <v>1.392307673293346</v>
+      </c>
+      <c r="J5">
+        <v>0.7493790419838151</v>
+      </c>
+      <c r="K5">
+        <v>0.604736342051226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>2.602074501504489</v>
+      </c>
+      <c r="C6">
+        <v>0.8972830109467651</v>
+      </c>
+      <c r="D6">
+        <v>0.919868348960051</v>
+      </c>
+      <c r="E6">
+        <v>0.816190070939427</v>
+      </c>
+      <c r="F6">
+        <v>1.378986494186549</v>
+      </c>
+      <c r="G6">
+        <v>1.357157096315078</v>
+      </c>
+      <c r="H6">
+        <v>0.714228465005547</v>
+      </c>
+      <c r="I6">
+        <v>0.5695857650729579</v>
+      </c>
+      <c r="J6">
+        <v>3.811838006236286</v>
+      </c>
+      <c r="K6">
+        <v>1.464296960261052</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>-1.682206152544439</v>
+      </c>
+      <c r="C7">
+        <v>-1.785884430565063</v>
+      </c>
+      <c r="D7">
+        <v>-1.22308800731794</v>
+      </c>
+      <c r="E7">
+        <v>-1.244917405189411</v>
+      </c>
+      <c r="F7">
+        <v>-1.887846036498942</v>
+      </c>
+      <c r="G7">
+        <v>-2.032488736431532</v>
+      </c>
+      <c r="H7">
+        <v>1.209763504731797</v>
+      </c>
+      <c r="I7">
+        <v>-1.137777541243437</v>
+      </c>
+      <c r="J7">
+        <v>-1.343488652261143</v>
+      </c>
+      <c r="K7">
+        <v>-1.452019625649953</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>0.4591181452264981</v>
+      </c>
+      <c r="C8">
+        <v>0.4372887473550271</v>
+      </c>
+      <c r="D8">
+        <v>-0.2056398839545039</v>
+      </c>
+      <c r="E8">
+        <v>-0.3502825838870931</v>
+      </c>
+      <c r="F8">
+        <v>2.891969657276235</v>
+      </c>
+      <c r="G8">
+        <v>0.5444286113010011</v>
+      </c>
+      <c r="H8">
+        <v>0.3387175002832952</v>
+      </c>
+      <c r="I8">
+        <v>0.2301865268944852</v>
+      </c>
+      <c r="J8">
+        <v>2.818230912215555</v>
+      </c>
+      <c r="K8">
+        <v>0.2314184332560252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>-0.664758029181002</v>
+      </c>
+      <c r="C9">
+        <v>-0.8094007291135912</v>
+      </c>
+      <c r="D9">
+        <v>2.432851512049737</v>
+      </c>
+      <c r="E9">
+        <v>0.08531046607450299</v>
+      </c>
+      <c r="F9">
+        <v>-0.1204006449432029</v>
+      </c>
+      <c r="G9">
+        <v>-0.2289316183320129</v>
+      </c>
+      <c r="H9">
+        <v>2.359112766989057</v>
+      </c>
+      <c r="I9">
+        <v>-0.2276997119704729</v>
+      </c>
+      <c r="J9">
+        <v>-0.257792413836597</v>
+      </c>
+      <c r="K9">
+        <v>0.07267529252486304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>3.097609541230739</v>
+      </c>
+      <c r="C10">
+        <v>0.750068495255505</v>
+      </c>
+      <c r="D10">
+        <v>0.5443573842377991</v>
+      </c>
+      <c r="E10">
+        <v>0.4358264108489891</v>
+      </c>
+      <c r="F10">
+        <v>3.023870796170059</v>
+      </c>
+      <c r="G10">
+        <v>0.4370583172105291</v>
+      </c>
+      <c r="H10">
+        <v>0.406965615344405</v>
+      </c>
+      <c r="I10">
+        <v>0.7374333217058651</v>
+      </c>
+      <c r="J10">
+        <v>2.640083340111744</v>
+      </c>
+      <c r="K10">
+        <v>1.830284963767483</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>-2.55325215699294</v>
+      </c>
+      <c r="C11">
+        <v>-2.66178313038175</v>
+      </c>
+      <c r="D11">
+        <v>-0.0737387450606799</v>
+      </c>
+      <c r="E11">
+        <v>-2.66055122402021</v>
+      </c>
+      <c r="F11">
+        <v>-2.690643925886334</v>
+      </c>
+      <c r="G11">
+        <v>-2.360176219524874</v>
+      </c>
+      <c r="H11">
+        <v>-0.4575262011189949</v>
+      </c>
+      <c r="I11">
+        <v>-1.267324577463256</v>
+      </c>
+      <c r="J11">
+        <v>-1.377012768719666</v>
+      </c>
+      <c r="K11">
+        <v>-1.449681082354104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>2.47951341193226</v>
+      </c>
+      <c r="C12">
+        <v>-0.10729906702727</v>
+      </c>
+      <c r="D12">
+        <v>-0.1373917688933941</v>
+      </c>
+      <c r="E12">
+        <v>0.193075937468066</v>
+      </c>
+      <c r="F12">
+        <v>2.095725955873945</v>
+      </c>
+      <c r="G12">
+        <v>1.285927579529684</v>
+      </c>
+      <c r="H12">
+        <v>1.176239388273274</v>
+      </c>
+      <c r="I12">
+        <v>1.103571074638836</v>
+      </c>
+      <c r="J12">
+        <v>0.6489427173271165</v>
+      </c>
+      <c r="K12">
+        <v>0.6775400841027304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>-2.616905180825654</v>
+      </c>
+      <c r="C13">
+        <v>-2.286437474464194</v>
+      </c>
+      <c r="D13">
+        <v>-0.383787456058315</v>
+      </c>
+      <c r="E13">
+        <v>-1.193585832402576</v>
+      </c>
+      <c r="F13">
+        <v>-1.303274023658986</v>
+      </c>
+      <c r="G13">
+        <v>-1.375942337293424</v>
+      </c>
+      <c r="H13">
+        <v>-1.830570694605143</v>
+      </c>
+      <c r="I13">
+        <v>-1.80197332782953</v>
+      </c>
+      <c r="J13">
+        <v>-1.735115714123254</v>
+      </c>
+      <c r="K13">
+        <v>-1.785467597232895</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>2.233117724767339</v>
+      </c>
+      <c r="C14">
+        <v>1.423319348423078</v>
+      </c>
+      <c r="D14">
+        <v>1.313631157166668</v>
+      </c>
+      <c r="E14">
+        <v>1.24096284353223</v>
+      </c>
+      <c r="F14">
+        <v>0.7863344862205106</v>
+      </c>
+      <c r="G14">
+        <v>0.8149318529961245</v>
+      </c>
+      <c r="H14">
+        <v>0.8817894667024002</v>
+      </c>
+      <c r="I14">
+        <v>0.8314375835927588</v>
+      </c>
+      <c r="J14">
+        <v>1.240812138641388</v>
+      </c>
+      <c r="K14">
+        <v>0.759348042452785</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>-0.9194865676006714</v>
+      </c>
+      <c r="C15">
+        <v>-0.9921548812351091</v>
+      </c>
+      <c r="D15">
+        <v>-1.446783238546828</v>
+      </c>
+      <c r="E15">
+        <v>-1.418185871771215</v>
+      </c>
+      <c r="F15">
+        <v>-1.351328258064939</v>
+      </c>
+      <c r="G15">
+        <v>-1.40168014117458</v>
+      </c>
+      <c r="H15">
+        <v>-0.9923055861259513</v>
+      </c>
+      <c r="I15">
+        <v>-1.473769682314554</v>
+      </c>
+      <c r="J15">
+        <v>-1.339363038277284</v>
+      </c>
+      <c r="K15">
+        <v>-1.070754666784339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-0.5272966709461571</v>
+      </c>
+      <c r="C16">
+        <v>-0.4986993041705433</v>
+      </c>
+      <c r="D16">
+        <v>-0.4318416904642675</v>
+      </c>
+      <c r="E16">
+        <v>-0.482193573573909</v>
+      </c>
+      <c r="F16">
+        <v>-0.07281901852528003</v>
+      </c>
+      <c r="G16">
+        <v>-0.5542831147138827</v>
+      </c>
+      <c r="H16">
+        <v>-0.4198764706766128</v>
+      </c>
+      <c r="I16">
+        <v>-0.1512680991836675</v>
+      </c>
+      <c r="J16">
+        <v>-0.6445801584241337</v>
+      </c>
+      <c r="K16">
+        <v>-0.6936243111987039</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>0.09545498048188961</v>
+      </c>
+      <c r="C17">
+        <v>0.04510309737224816</v>
+      </c>
+      <c r="D17">
+        <v>0.4544776524208771</v>
+      </c>
+      <c r="E17">
+        <v>-0.02698644376772563</v>
+      </c>
+      <c r="F17">
+        <v>0.1074202002695444</v>
+      </c>
+      <c r="G17">
+        <v>0.3760285717624896</v>
+      </c>
+      <c r="H17">
+        <v>-0.1172834874779767</v>
+      </c>
+      <c r="I17">
+        <v>-0.1663276402525469</v>
+      </c>
+      <c r="J17">
+        <v>0.06781952355716214</v>
+      </c>
+      <c r="K17">
+        <v>0.7554236315072842</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0.3590226719389875</v>
+      </c>
+      <c r="C18">
+        <v>-0.1224414242496152</v>
+      </c>
+      <c r="D18">
+        <v>0.01196521978765475</v>
+      </c>
+      <c r="E18">
+        <v>0.2805735912806</v>
+      </c>
+      <c r="F18">
+        <v>-0.2127384679598663</v>
+      </c>
+      <c r="G18">
+        <v>-0.2617826207344365</v>
+      </c>
+      <c r="H18">
+        <v>-0.02763545692472746</v>
+      </c>
+      <c r="I18">
+        <v>0.6599686510253946</v>
+      </c>
+      <c r="J18">
+        <v>-0.9176804360672572</v>
+      </c>
+      <c r="K18">
+        <v>0.2807630194855051</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>-0.3470574521513328</v>
+      </c>
+      <c r="C19">
+        <v>-0.07844908065838749</v>
+      </c>
+      <c r="D19">
+        <v>-0.5717611398988538</v>
+      </c>
+      <c r="E19">
+        <v>-0.620805292673424</v>
+      </c>
+      <c r="F19">
+        <v>-0.386658128863715</v>
+      </c>
+      <c r="G19">
+        <v>0.3009459790864071</v>
+      </c>
+      <c r="H19">
+        <v>-1.276703108006245</v>
+      </c>
+      <c r="I19">
+        <v>-0.0782596524534824</v>
+      </c>
+      <c r="J19">
+        <v>0.0465498360118943</v>
+      </c>
+      <c r="K19">
+        <v>-0.2342569380720079</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-0.224703687747521</v>
+      </c>
+      <c r="C20">
+        <v>-0.2737478405220912</v>
+      </c>
+      <c r="D20">
+        <v>-0.03960067671238221</v>
+      </c>
+      <c r="E20">
+        <v>0.6480034312377398</v>
+      </c>
+      <c r="F20">
+        <v>-0.929645655854912</v>
+      </c>
+      <c r="G20">
+        <v>0.2687977996978503</v>
+      </c>
+      <c r="H20">
+        <v>0.393607288163227</v>
+      </c>
+      <c r="I20">
+        <v>0.1128005140793248</v>
+      </c>
+      <c r="J20">
+        <v>1.693607288163227</v>
+      </c>
+      <c r="K20">
+        <v>-0.3570137386845715</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>0.1851030110351388</v>
+      </c>
+      <c r="C21">
+        <v>0.8727071189852609</v>
+      </c>
+      <c r="D21">
+        <v>-0.704941968107391</v>
+      </c>
+      <c r="E21">
+        <v>0.4935014874453714</v>
+      </c>
+      <c r="F21">
+        <v>0.6183109759107481</v>
+      </c>
+      <c r="G21">
+        <v>0.3375042018268459</v>
+      </c>
+      <c r="H21">
+        <v>1.918310975910748</v>
+      </c>
+      <c r="I21">
+        <v>-0.1323100509370505</v>
+      </c>
+      <c r="J21">
+        <v>-0.1833587384454058</v>
+      </c>
+      <c r="K21">
+        <v>-0.232624008262619</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>-0.8900449791425298</v>
+      </c>
+      <c r="C22">
+        <v>0.3083984764102325</v>
+      </c>
+      <c r="D22">
+        <v>0.4332079648756093</v>
+      </c>
+      <c r="E22">
+        <v>0.1524011907917071</v>
+      </c>
+      <c r="F22">
+        <v>1.733207964875609</v>
+      </c>
+      <c r="G22">
+        <v>-0.3174130619721893</v>
+      </c>
+      <c r="H22">
+        <v>-0.3684617494805447</v>
+      </c>
+      <c r="I22">
+        <v>-0.4177270192977578</v>
+      </c>
+      <c r="J22">
+        <v>0.9332079648756093</v>
+      </c>
+      <c r="K22">
+        <v>0.0468757196910019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>-0.3792056315398895</v>
+      </c>
+      <c r="C23">
+        <v>-0.2543961430745128</v>
+      </c>
+      <c r="D23">
+        <v>-0.5352029171584149</v>
+      </c>
+      <c r="E23">
+        <v>1.045603856925487</v>
+      </c>
+      <c r="F23">
+        <v>-1.005017169922311</v>
+      </c>
+      <c r="G23">
+        <v>-1.056065857430667</v>
+      </c>
+      <c r="H23">
+        <v>-1.10533112724788</v>
+      </c>
+      <c r="I23">
+        <v>0.2456038569254872</v>
+      </c>
+      <c r="J23">
+        <v>-0.6407283882591202</v>
+      </c>
+      <c r="K23">
+        <v>-0.8525805525280248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>1.323252944018139</v>
+      </c>
+      <c r="C24">
+        <v>1.042446169934237</v>
+      </c>
+      <c r="D24">
+        <v>2.623252944018139</v>
+      </c>
+      <c r="E24">
+        <v>0.5726319171703405</v>
+      </c>
+      <c r="F24">
+        <v>0.5215832296619851</v>
+      </c>
+      <c r="G24">
+        <v>0.472317959844772</v>
+      </c>
+      <c r="H24">
+        <v>1.823252944018139</v>
+      </c>
+      <c r="I24">
+        <v>0.9369206988335317</v>
+      </c>
+      <c r="J24">
+        <v>0.7250685345646271</v>
+      </c>
+      <c r="K24">
+        <v>0.726045045891794</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>-0.1559972856185255</v>
+      </c>
+      <c r="C25">
+        <v>1.424809488465377</v>
+      </c>
+      <c r="D25">
+        <v>-0.6258115383824219</v>
+      </c>
+      <c r="E25">
+        <v>-0.6768602258907772</v>
+      </c>
+      <c r="F25">
+        <v>-0.7261254957079903</v>
+      </c>
+      <c r="G25">
+        <v>0.6248094884653768</v>
+      </c>
+      <c r="H25">
+        <v>-0.2615227567192306</v>
+      </c>
+      <c r="I25">
+        <v>-0.4733749209881353</v>
+      </c>
+      <c r="J25">
+        <v>-0.4723984096609684</v>
+      </c>
+      <c r="K25">
+        <v>-0.375853771157324</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>1.3</v>
+      </c>
+      <c r="C26">
+        <v>-0.7506210268477986</v>
+      </c>
+      <c r="D26">
+        <v>-0.801669714356154</v>
+      </c>
+      <c r="E26">
+        <v>-0.8509349841733671</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>-0.3863322451846073</v>
+      </c>
+      <c r="H26">
+        <v>-0.598184409453512</v>
+      </c>
+      <c r="I26">
+        <v>-0.5972078981263451</v>
+      </c>
+      <c r="J26">
+        <v>-0.5006632596227008</v>
+      </c>
+      <c r="K26">
+        <v>-0.5005260309296233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>-0.4698142527638964</v>
+      </c>
+      <c r="C27">
+        <v>-0.5208629402722518</v>
+      </c>
+      <c r="D27">
+        <v>-0.5701282100894649</v>
+      </c>
+      <c r="E27">
+        <v>0.7808067740839022</v>
+      </c>
+      <c r="F27">
+        <v>-0.1055254711007051</v>
+      </c>
+      <c r="G27">
+        <v>-0.3173776353696098</v>
+      </c>
+      <c r="H27">
+        <v>-0.3164011240424429</v>
+      </c>
+      <c r="I27">
+        <v>-0.2198564855387985</v>
+      </c>
+      <c r="J27">
+        <v>-0.2197192568457211</v>
+      </c>
+      <c r="K27">
+        <v>-1.021059234380061</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>-2.101669714356154</v>
+      </c>
+      <c r="C28">
+        <v>-2.150934984173367</v>
+      </c>
+      <c r="D28">
+        <v>-0.8</v>
+      </c>
+      <c r="E28">
+        <v>-1.686332245184607</v>
+      </c>
+      <c r="F28">
+        <v>-1.898184409453512</v>
+      </c>
+      <c r="G28">
+        <v>-1.897207898126345</v>
+      </c>
+      <c r="H28">
+        <v>-1.800663259622701</v>
+      </c>
+      <c r="I28">
+        <v>-1.800526030929623</v>
+      </c>
+      <c r="J28">
+        <v>-2.601866008463963</v>
+      </c>
+      <c r="K28">
+        <v>-2.600711092634546</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>-0.1003139573255685</v>
+      </c>
+      <c r="C29">
+        <v>1.250621026847799</v>
+      </c>
+      <c r="D29">
+        <v>0.3642887816631912</v>
+      </c>
+      <c r="E29">
+        <v>0.1524366173942866</v>
+      </c>
+      <c r="F29">
+        <v>0.1534131287214535</v>
+      </c>
+      <c r="G29">
+        <v>0.2499577672250979</v>
+      </c>
+      <c r="H29">
+        <v>0.2500949959181753</v>
+      </c>
+      <c r="I29">
+        <v>-0.5512449816161644</v>
+      </c>
+      <c r="J29">
+        <v>-0.5500900657867474</v>
+      </c>
+      <c r="K29">
+        <v>-0.4471452664383404</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>1.301669714356154</v>
+      </c>
+      <c r="C30">
+        <v>0.4153374691715466</v>
+      </c>
+      <c r="D30">
+        <v>0.2034853049026419</v>
+      </c>
+      <c r="E30">
+        <v>0.2044618162298089</v>
+      </c>
+      <c r="F30">
+        <v>0.3010064547334532</v>
+      </c>
+      <c r="G30">
+        <v>0.3011436834265306</v>
+      </c>
+      <c r="H30">
+        <v>-0.5001962941078091</v>
+      </c>
+      <c r="I30">
+        <v>-0.499041378278392</v>
+      </c>
+      <c r="J30">
+        <v>-0.3960965789299851</v>
+      </c>
+      <c r="K30">
+        <v>0.1002983009377796</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>0.4646027389887597</v>
+      </c>
+      <c r="C31">
+        <v>0.2527505747198551</v>
+      </c>
+      <c r="D31">
+        <v>0.253727086047022</v>
+      </c>
+      <c r="E31">
+        <v>0.3502717245506664</v>
+      </c>
+      <c r="F31">
+        <v>0.3504089532437438</v>
+      </c>
+      <c r="G31">
+        <v>-0.4509310242905959</v>
+      </c>
+      <c r="H31">
+        <v>-0.4497761084611789</v>
+      </c>
+      <c r="I31">
+        <v>-0.3468313091127719</v>
+      </c>
+      <c r="J31">
+        <v>0.1495635707549927</v>
+      </c>
+      <c r="K31">
+        <v>0.6470820065884912</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>-1.098184409453512</v>
+      </c>
+      <c r="C32">
+        <v>-1.097207898126345</v>
+      </c>
+      <c r="D32">
+        <v>-1.000663259622701</v>
+      </c>
+      <c r="E32">
+        <v>-1.000526030929623</v>
+      </c>
+      <c r="F32">
+        <v>-1.801866008463963</v>
+      </c>
+      <c r="G32">
+        <v>-1.800711092634546</v>
+      </c>
+      <c r="H32">
+        <v>-1.697766293286139</v>
+      </c>
+      <c r="I32">
+        <v>-1.201371413418374</v>
+      </c>
+      <c r="J32">
+        <v>-0.7038529775848759</v>
+      </c>
+      <c r="K32">
+        <v>-1.29917432006167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>0.0009765113271669179</v>
+      </c>
+      <c r="C33">
+        <v>0.09752114983081128</v>
+      </c>
+      <c r="D33">
+        <v>0.0976583785238887</v>
+      </c>
+      <c r="E33">
+        <v>-0.703681599010451</v>
+      </c>
+      <c r="F33">
+        <v>-0.702526683181034</v>
+      </c>
+      <c r="G33">
+        <v>-0.599581883832627</v>
+      </c>
+      <c r="H33">
+        <v>-0.1031870039648624</v>
+      </c>
+      <c r="I33">
+        <v>0.3943314318686362</v>
+      </c>
+      <c r="J33">
+        <v>-0.2009899106081576</v>
+      </c>
+      <c r="K33">
+        <v>0.1631459027032491</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>0.09654463850364436</v>
+      </c>
+      <c r="C34">
+        <v>0.09668186719672178</v>
+      </c>
+      <c r="D34">
+        <v>-0.7046581103376179</v>
+      </c>
+      <c r="E34">
+        <v>-0.7035031945082009</v>
+      </c>
+      <c r="F34">
+        <v>-0.6005583951597939</v>
+      </c>
+      <c r="G34">
+        <v>-0.1041635152920293</v>
+      </c>
+      <c r="H34">
+        <v>0.3933549205414693</v>
+      </c>
+      <c r="I34">
+        <v>-0.2019664219353245</v>
+      </c>
+      <c r="J34">
+        <v>0.1621693913760822</v>
+      </c>
+      <c r="K34">
+        <v>0.583764504599273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>0.000137228693077418</v>
+      </c>
+      <c r="C35">
+        <v>-0.8012027488412623</v>
+      </c>
+      <c r="D35">
+        <v>-0.8000478330118452</v>
+      </c>
+      <c r="E35">
+        <v>-0.6971030336634383</v>
+      </c>
+      <c r="F35">
+        <v>-0.2007081537956736</v>
+      </c>
+      <c r="G35">
+        <v>0.2968102820378249</v>
+      </c>
+      <c r="H35">
+        <v>-0.2985110604389689</v>
+      </c>
+      <c r="I35">
+        <v>0.06562475287243785</v>
+      </c>
+      <c r="J35">
+        <v>0.4872198660956286</v>
+      </c>
+      <c r="K35">
+        <v>0.3377368375363261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>-0.8013399775343397</v>
+      </c>
+      <c r="C36">
+        <v>-0.8001850617049227</v>
+      </c>
+      <c r="D36">
+        <v>-0.6972402623565157</v>
+      </c>
+      <c r="E36">
+        <v>-0.2008453824887511</v>
+      </c>
+      <c r="F36">
+        <v>0.2966730533447475</v>
+      </c>
+      <c r="G36">
+        <v>-0.2986482891320463</v>
+      </c>
+      <c r="H36">
+        <v>0.06548752417936043</v>
+      </c>
+      <c r="I36">
+        <v>0.4870826374025512</v>
+      </c>
+      <c r="J36">
+        <v>0.3375996088432487</v>
+      </c>
+      <c r="K36">
+        <v>0.3914067175763307</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>0.001154915829417069</v>
+      </c>
+      <c r="C37">
+        <v>0.104099715177824</v>
+      </c>
+      <c r="D37">
+        <v>0.6004945950455887</v>
+      </c>
+      <c r="E37">
+        <v>1.098013030879087</v>
+      </c>
+      <c r="F37">
+        <v>0.5026916884022934</v>
+      </c>
+      <c r="G37">
+        <v>0.8668275017137002</v>
+      </c>
+      <c r="H37">
+        <v>1.288422614936891</v>
+      </c>
+      <c r="I37">
+        <v>1.138939586377588</v>
+      </c>
+      <c r="J37">
+        <v>1.19274669511067</v>
+      </c>
+      <c r="K37">
+        <v>0.8679976599804031</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>0.1029447993484069</v>
+      </c>
+      <c r="C38">
+        <v>0.5993396792161716</v>
+      </c>
+      <c r="D38">
+        <v>1.09685811504967</v>
+      </c>
+      <c r="E38">
+        <v>0.5015367725728763</v>
+      </c>
+      <c r="F38">
+        <v>0.8656725858842831</v>
+      </c>
+      <c r="G38">
+        <v>1.287267699107474</v>
+      </c>
+      <c r="H38">
+        <v>1.137784670548171</v>
+      </c>
+      <c r="I38">
+        <v>1.191591779281253</v>
+      </c>
+      <c r="J38">
+        <v>0.8668427441509861</v>
+      </c>
+      <c r="K38">
+        <v>1.202209749129522</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
         <v>0.4963948798677646</v>
       </c>
-      <c r="C2">
+      <c r="C39">
         <v>0.9939133157012632</v>
       </c>
-      <c r="D2">
+      <c r="D39">
         <v>0.3985919732244694</v>
       </c>
-      <c r="E2">
+      <c r="E39">
         <v>0.7627277865358761</v>
       </c>
-      <c r="F2">
+      <c r="F39">
         <v>1.184322899759067</v>
       </c>
-      <c r="G2">
+      <c r="G39">
         <v>1.034839871199764</v>
       </c>
-      <c r="H2">
+      <c r="H39">
         <v>1.088646979932846</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
+      <c r="I39">
+        <v>0.7638979448025791</v>
+      </c>
+      <c r="J39">
+        <v>1.099264949781116</v>
+      </c>
+      <c r="K39">
+        <v>1.192806071161371</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
         <v>0.4975184358334985</v>
       </c>
-      <c r="C3">
+      <c r="C40">
         <v>-0.09780290664329527</v>
       </c>
-      <c r="D3">
+      <c r="D40">
         <v>0.2663329066681115</v>
       </c>
-      <c r="E3">
+      <c r="E40">
         <v>0.6879280198913023</v>
       </c>
-      <c r="F3">
+      <c r="F40">
         <v>0.5384449913319997</v>
       </c>
-      <c r="G3">
+      <c r="G40">
         <v>0.5922521000650818</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
+      <c r="H40">
+        <v>0.2675030649348145</v>
+      </c>
+      <c r="I40">
+        <v>0.6028700699133509</v>
+      </c>
+      <c r="J40">
+        <v>0.6964111912936062</v>
+      </c>
+      <c r="K40">
+        <v>0.213564291979921</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
         <v>-0.5953213424767938</v>
       </c>
-      <c r="C4">
+      <c r="C41">
         <v>-0.231185529165387</v>
       </c>
-      <c r="D4">
+      <c r="D41">
         <v>0.1904095840578037</v>
       </c>
-      <c r="E4">
+      <c r="E41">
         <v>0.04092655549850122</v>
       </c>
-      <c r="F4">
+      <c r="F41">
         <v>0.09473366423158319</v>
       </c>
-      <c r="G4">
+      <c r="G41">
         <v>-0.2300153708986841</v>
       </c>
-      <c r="H4">
+      <c r="H41">
         <v>0.1053516340798524</v>
       </c>
-      <c r="I4">
+      <c r="I41">
         <v>0.1988927554601076</v>
       </c>
-      <c r="J4">
+      <c r="J41">
         <v>-0.2839541438535775</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
+      <c r="K41">
+        <v>-0.1743655612560957</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
         <v>0.3641358133114068</v>
       </c>
-      <c r="C5">
+      <c r="C42">
         <v>0.7857309265345975</v>
       </c>
-      <c r="D5">
+      <c r="D42">
         <v>0.636247897975295</v>
       </c>
-      <c r="E5">
+      <c r="E42">
         <v>0.6900550067083771</v>
       </c>
-      <c r="F5">
+      <c r="F42">
         <v>0.3653059715781097</v>
       </c>
-      <c r="G5">
+      <c r="G42">
         <v>0.7006729765566462</v>
       </c>
-      <c r="H5">
+      <c r="H42">
         <v>0.7942140979369015</v>
       </c>
-      <c r="I5">
+      <c r="I42">
         <v>0.3113671986232163</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
+      <c r="J42">
+        <v>0.4209557812206981</v>
+      </c>
+      <c r="K42">
+        <v>0.45011522372684</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
         <v>0.4215951132231908</v>
       </c>
-      <c r="C6">
+      <c r="C43">
         <v>0.2721120846638883</v>
       </c>
-      <c r="D6">
+      <c r="D43">
         <v>0.3259191933969702</v>
       </c>
-      <c r="E6">
+      <c r="E43">
         <v>0.00117015826670297</v>
       </c>
-      <c r="F6">
+      <c r="F43">
         <v>0.3365371632452395</v>
       </c>
-      <c r="G6">
+      <c r="G43">
         <v>0.4300782846254947</v>
       </c>
-      <c r="H6">
+      <c r="H43">
         <v>-0.0527686146881905</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
+      <c r="I43">
+        <v>0.05681996790929134</v>
+      </c>
+      <c r="J43">
+        <v>0.08597941041543322</v>
+      </c>
+      <c r="K43">
+        <v>-0.1127150577741673</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
         <v>-0.1494830285593025</v>
       </c>
-      <c r="C7">
+      <c r="C44">
         <v>-0.09567591982622053</v>
       </c>
-      <c r="D7">
+      <c r="D44">
         <v>-0.4204249549564878</v>
       </c>
-      <c r="E7">
+      <c r="E44">
         <v>-0.0850579499779513</v>
       </c>
-      <c r="F7">
+      <c r="F44">
         <v>0.008483171402303896</v>
       </c>
-      <c r="G7">
+      <c r="G44">
         <v>-0.4743637279113813</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
+      <c r="H44">
+        <v>-0.3647751453138994</v>
+      </c>
+      <c r="I44">
+        <v>-0.3356157028077575</v>
+      </c>
+      <c r="J44">
+        <v>-0.5343101709973581</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
         <v>0.05380710873308198</v>
       </c>
-      <c r="C8">
+      <c r="C45">
         <v>-0.2709419263971853</v>
       </c>
-      <c r="D8">
+      <c r="D45">
         <v>0.06442507858135121</v>
       </c>
-      <c r="E8">
+      <c r="E45">
         <v>0.1579661999616064</v>
       </c>
-      <c r="F8">
+      <c r="F45">
         <v>-0.3248806993520788</v>
       </c>
-      <c r="G8">
+      <c r="G45">
         <v>-0.2152921167545969</v>
       </c>
-      <c r="H8">
+      <c r="H45">
         <v>-0.186132674248455</v>
       </c>
-      <c r="I8">
+      <c r="I45">
         <v>-0.3848271424380556</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
         <v>-0.3247490351302673</v>
       </c>
-      <c r="C9">
+      <c r="C46">
         <v>0.01061796984826924</v>
       </c>
-      <c r="D9">
+      <c r="D46">
         <v>0.1041590912285244</v>
       </c>
-      <c r="E9">
+      <c r="E46">
         <v>-0.3786878080851607</v>
       </c>
-      <c r="F9">
+      <c r="F46">
         <v>-0.2690992254876789</v>
       </c>
-      <c r="G9">
+      <c r="G46">
         <v>-0.239939782981537</v>
       </c>
-      <c r="H9">
+      <c r="H46">
         <v>-0.4386342511711376</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
         <v>0.3353670049785365</v>
       </c>
-      <c r="C10">
+      <c r="C47">
         <v>0.4289081263587917</v>
       </c>
-      <c r="D10">
+      <c r="D47">
         <v>-0.05393877295489347</v>
       </c>
-      <c r="E10">
+      <c r="E47">
         <v>0.05564980964258837</v>
       </c>
-      <c r="F10">
+      <c r="F47">
         <v>0.08480925214873025</v>
       </c>
-      <c r="G10">
+      <c r="G47">
         <v>-0.1138852160408703</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
         <v>0.09354112138025519</v>
       </c>
-      <c r="C11">
+      <c r="C48">
         <v>-0.38930577793343</v>
       </c>
-      <c r="D11">
+      <c r="D48">
         <v>-0.2797171953359481</v>
       </c>
-      <c r="E11">
+      <c r="E48">
         <v>-0.2505577528298062</v>
       </c>
-      <c r="F11">
+      <c r="F48">
         <v>-0.4492522210194068</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
         <v>-0.4828468993136852</v>
       </c>
-      <c r="C12">
+      <c r="C49">
         <v>-0.3732583167162034</v>
       </c>
-      <c r="D12">
+      <c r="D49">
         <v>-0.3440988742100615</v>
       </c>
-      <c r="E12">
+      <c r="E49">
         <v>-0.542793342399662</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
         <v>0.1095885825974818</v>
       </c>
-      <c r="C13">
+      <c r="C50">
         <v>0.1387480251036237</v>
       </c>
-      <c r="D13">
+      <c r="D50">
         <v>-0.05994644308597685</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
         <v>0.02915944250614189</v>
       </c>
-      <c r="C14">
+      <c r="C51">
         <v>-0.1695350256834587</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15">
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
         <v>-0.1986944681896006</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/OPA/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/OPA/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -600,34 +600,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>-1.115566111506481</v>
+      </c>
+      <c r="C2">
         <v>6.235374053902774</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-0.6588145558456651</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.2476226530800152</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1.103499892488202</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.1965604259001879</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.5165088048693751</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.2317110028784559</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.97137660635697</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>2.833785504382945</v>
-      </c>
-      <c r="K2">
-        <v>1.128994013825221</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -635,34 +635,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>-6.894188609748439</v>
+      </c>
+      <c r="C3">
         <v>-5.987751400822759</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>-5.131874161414572</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-6.038813628002586</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-5.718865249033399</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-6.003663051024319</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-5.263997447545804</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-3.401588549519829</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-5.106380040077553</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-5.083794702064267</v>
-      </c>
-      <c r="K3">
-        <v>-5.187472980084891</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,34 +670,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>0.8558772394081868</v>
+      </c>
+      <c r="C4">
         <v>-0.05106222717982734</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.2688861517893599</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-0.01591165020155927</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.7237539532769548</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2.58616285130293</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.8813713607452058</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.9039566987584917</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.8002784207378677</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1.36307484398499</v>
-      </c>
-      <c r="K4">
-        <v>1.341245446113519</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -705,34 +705,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>0.3199483789691873</v>
+      </c>
+      <c r="C5">
         <v>0.03515057697826807</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.7748161804567821</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2.637225078482758</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.9324335879250332</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.9550189259383191</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.851340647917695</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.414137071164817</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1.392307673293346</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.7493790419838151</v>
-      </c>
-      <c r="K5">
-        <v>0.604736342051226</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -740,34 +740,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>0.7396656034785141</v>
+      </c>
+      <c r="C6">
         <v>2.602074501504489</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.8972830109467651</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.919868348960051</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.816190070939427</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1.378986494186549</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1.357157096315078</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.714228465005547</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.5695857650729579</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>3.811838006236286</v>
-      </c>
-      <c r="K6">
-        <v>1.464296960261052</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -775,34 +775,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>-1.704791490557724</v>
+      </c>
+      <c r="C7">
         <v>-1.682206152544439</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-1.785884430565063</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-1.22308800731794</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-1.244917405189411</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-1.887846036498942</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-2.032488736431532</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1.209763504731797</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-1.137777541243437</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-1.343488652261143</v>
-      </c>
-      <c r="K7">
-        <v>-1.452019625649953</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -810,34 +810,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>-0.103678278020624</v>
+      </c>
+      <c r="C8">
         <v>0.4591181452264981</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.4372887473550271</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-0.2056398839545039</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-0.3502825838870931</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>2.891969657276235</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.5444286113010011</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.3387175002832952</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.2301865268944852</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>2.818230912215555</v>
-      </c>
-      <c r="K8">
-        <v>0.2314184332560252</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -845,34 +845,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>-0.02182939787147098</v>
+      </c>
+      <c r="C9">
         <v>-0.664758029181002</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-0.8094007291135912</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>2.432851512049737</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.08531046607450299</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-0.1204006449432029</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-0.2289316183320129</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2.359112766989057</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-0.2276997119704729</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-0.257792413836597</v>
-      </c>
-      <c r="K9">
-        <v>0.07267529252486304</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -880,34 +880,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>-0.1446426999325892</v>
+      </c>
+      <c r="C10">
         <v>3.097609541230739</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.750068495255505</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.5443573842377991</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.4358264108489891</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>3.023870796170059</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.4370583172105291</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.406965615344405</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.7374333217058651</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>2.640083340111744</v>
-      </c>
-      <c r="K10">
-        <v>1.830284963767483</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -915,34 +915,34 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>-2.347541045975234</v>
+      </c>
+      <c r="C11">
         <v>-2.55325215699294</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-2.66178313038175</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-0.0737387450606799</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-2.66055122402021</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-2.690643925886334</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-2.360176219524874</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-0.4575262011189949</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-1.267324577463256</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-1.377012768719666</v>
-      </c>
-      <c r="K11">
-        <v>-1.449681082354104</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -950,34 +950,34 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>-0.10853097338881</v>
+      </c>
+      <c r="C12">
         <v>2.47951341193226</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-0.10729906702727</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-0.1373917688933941</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.193075937468066</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>2.095725955873945</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1.285927579529684</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1.176239388273274</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1.103571074638836</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.6489427173271165</v>
-      </c>
-      <c r="K12">
-        <v>0.6775400841027304</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -985,34 +985,34 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>-2.58681247895953</v>
+      </c>
+      <c r="C13">
         <v>-2.616905180825654</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-2.286437474464194</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-0.383787456058315</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-1.193585832402576</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-1.303274023658986</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-1.375942337293424</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-1.830570694605143</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-1.80197332782953</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-1.735115714123254</v>
-      </c>
-      <c r="K13">
-        <v>-1.785467597232895</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1020,34 +1020,34 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>0.3304677063614601</v>
+      </c>
+      <c r="C14">
         <v>2.233117724767339</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1.423319348423078</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1.313631157166668</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1.24096284353223</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.7863344862205106</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.8149318529961245</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.8817894667024002</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.8314375835927588</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1.240812138641388</v>
-      </c>
-      <c r="K14">
-        <v>0.759348042452785</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1055,34 +1055,34 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>-0.8097983763442613</v>
+      </c>
+      <c r="C15">
         <v>-0.9194865676006714</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-0.9921548812351091</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-1.446783238546828</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-1.418185871771215</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-1.351328258064939</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-1.40168014117458</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-0.9923055861259513</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-1.473769682314554</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-1.339363038277284</v>
-      </c>
-      <c r="K15">
-        <v>-1.070754666784339</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1090,34 +1090,34 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>-0.07266831363443782</v>
+      </c>
+      <c r="C16">
         <v>-0.5272966709461571</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-0.4986993041705433</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>-0.4318416904642675</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-0.482193573573909</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-0.07281901852528003</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-0.5542831147138827</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-0.4198764706766128</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-0.1512680991836675</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-0.6445801584241337</v>
-      </c>
-      <c r="K16">
-        <v>-0.6936243111987039</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1125,34 +1125,34 @@
         <v>25</v>
       </c>
       <c r="B17">
+        <v>0.02859736677561386</v>
+      </c>
+      <c r="C17">
         <v>0.09545498048188961</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.04510309737224816</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.4544776524208771</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-0.02698644376772563</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.1074202002695444</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.3760285717624896</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-0.1172834874779767</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-0.1663276402525469</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.06781952355716214</v>
-      </c>
-      <c r="K17">
-        <v>0.7554236315072842</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1160,34 +1160,34 @@
         <v>26</v>
       </c>
       <c r="B18">
+        <v>-0.05035188310964145</v>
+      </c>
+      <c r="C18">
         <v>0.3590226719389875</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-0.1224414242496152</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.01196521978765475</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.2805735912806</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-0.2127384679598663</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-0.2617826207344365</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-0.02763545692472746</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.6599686510253946</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-0.9176804360672572</v>
-      </c>
-      <c r="K18">
-        <v>0.2807630194855051</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1195,34 +1195,34 @@
         <v>27</v>
       </c>
       <c r="B19">
+        <v>-0.4814640961886028</v>
+      </c>
+      <c r="C19">
         <v>-0.3470574521513328</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-0.07844908065838749</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-0.5717611398988538</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-0.620805292673424</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-0.386658128863715</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.3009459790864071</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>-1.276703108006245</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-0.0782596524534824</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.0465498360118943</v>
-      </c>
-      <c r="K19">
-        <v>-0.2342569380720079</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1230,34 +1230,34 @@
         <v>28</v>
       </c>
       <c r="B20">
+        <v>0.2686083714929453</v>
+      </c>
+      <c r="C20">
         <v>-0.224703687747521</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-0.2737478405220912</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-0.03960067671238221</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.6480034312377398</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-0.929645655854912</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.2687977996978503</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.393607288163227</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.1128005140793248</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>1.693607288163227</v>
-      </c>
-      <c r="K20">
-        <v>-0.3570137386845715</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1265,34 +1265,34 @@
         <v>29</v>
       </c>
       <c r="B21">
+        <v>-0.04904415277457019</v>
+      </c>
+      <c r="C21">
         <v>0.1851030110351388</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.8727071189852609</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>-0.704941968107391</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.4935014874453714</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.6183109759107481</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.3375042018268459</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>1.918310975910748</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>-0.1323100509370505</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-0.1833587384454058</v>
-      </c>
-      <c r="K21">
-        <v>-0.232624008262619</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1300,34 +1300,34 @@
         <v>30</v>
       </c>
       <c r="B22">
+        <v>0.6876041079501221</v>
+      </c>
+      <c r="C22">
         <v>-0.8900449791425298</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.3083984764102325</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.4332079648756093</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.1524011907917071</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>1.733207964875609</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>-0.3174130619721893</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>-0.3684617494805447</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-0.4177270192977578</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.9332079648756093</v>
-      </c>
-      <c r="K22">
-        <v>0.0468757196910019</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1335,34 +1335,34 @@
         <v>31</v>
       </c>
       <c r="B23">
+        <v>-1.577649087092652</v>
+      </c>
+      <c r="C23">
         <v>-0.3792056315398895</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>-0.2543961430745128</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>-0.5352029171584149</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>1.045603856925487</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>-1.005017169922311</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>-1.056065857430667</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-1.10533112724788</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.2456038569254872</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>-0.6407283882591202</v>
-      </c>
-      <c r="K23">
-        <v>-0.8525805525280248</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1370,34 +1370,34 @@
         <v>32</v>
       </c>
       <c r="B24">
+        <v>1.198443455552762</v>
+      </c>
+      <c r="C24">
         <v>1.323252944018139</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>1.042446169934237</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>2.623252944018139</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.5726319171703405</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.5215832296619851</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.472317959844772</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>1.823252944018139</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0.9369206988335317</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>0.7250685345646271</v>
-      </c>
-      <c r="K24">
-        <v>0.726045045891794</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1405,34 +1405,34 @@
         <v>33</v>
       </c>
       <c r="B25">
+        <v>0.1248094884653767</v>
+      </c>
+      <c r="C25">
         <v>-0.1559972856185255</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>1.424809488465377</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>-0.6258115383824219</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-0.6768602258907772</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>-0.7261254957079903</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>0.6248094884653768</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>-0.2615227567192306</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-0.4733749209881353</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-0.4723984096609684</v>
-      </c>
-      <c r="K25">
-        <v>-0.375853771157324</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1440,34 +1440,34 @@
         <v>34</v>
       </c>
       <c r="B26">
+        <v>-0.2808067740839022</v>
+      </c>
+      <c r="C26">
         <v>1.3</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>-0.7506210268477986</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>-0.801669714356154</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>-0.8509349841733671</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.5</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>-0.3863322451846073</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-0.598184409453512</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>-0.5972078981263451</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>-0.5006632596227008</v>
-      </c>
-      <c r="K26">
-        <v>-0.5005260309296233</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1475,34 +1475,34 @@
         <v>35</v>
       </c>
       <c r="B27">
+        <v>1.580806774083902</v>
+      </c>
+      <c r="C27">
         <v>-0.4698142527638964</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>-0.5208629402722518</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>-0.5701282100894649</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>0.7808067740839022</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>-0.1055254711007051</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-0.3173776353696098</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-0.3164011240424429</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>-0.2198564855387985</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-0.2197192568457211</v>
-      </c>
-      <c r="K27">
-        <v>-1.021059234380061</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1510,34 +1510,34 @@
         <v>36</v>
       </c>
       <c r="B28">
+        <v>-2.050621026847799</v>
+      </c>
+      <c r="C28">
         <v>-2.101669714356154</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-2.150934984173367</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>-0.8</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>-1.686332245184607</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-1.898184409453512</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-1.897207898126345</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-1.800663259622701</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-1.800526030929623</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-2.601866008463963</v>
-      </c>
-      <c r="K28">
-        <v>-2.600711092634546</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1545,34 +1545,34 @@
         <v>37</v>
       </c>
       <c r="B29">
+        <v>-0.05104868750835534</v>
+      </c>
+      <c r="C29">
         <v>-0.1003139573255685</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>1.250621026847799</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.3642887816631912</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>0.1524366173942866</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.1534131287214535</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>0.2499577672250979</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>0.2500949959181753</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-0.5512449816161644</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-0.5500900657867474</v>
-      </c>
-      <c r="K29">
-        <v>-0.4471452664383404</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1580,34 +1580,34 @@
         <v>38</v>
       </c>
       <c r="B30">
+        <v>-0.04926526981721313</v>
+      </c>
+      <c r="C30">
         <v>1.301669714356154</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.4153374691715466</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.2034853049026419</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0.2044618162298089</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.3010064547334532</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>0.3011436834265306</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-0.5001962941078091</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-0.499041378278392</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-0.3960965789299851</v>
-      </c>
-      <c r="K30">
-        <v>0.1002983009377796</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1615,34 +1615,34 @@
         <v>39</v>
       </c>
       <c r="B31">
+        <v>1.350934984173367</v>
+      </c>
+      <c r="C31">
         <v>0.4646027389887597</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>0.2527505747198551</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.253727086047022</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>0.3502717245506664</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.3504089532437438</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-0.4509310242905959</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-0.4497761084611789</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-0.3468313091127719</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>0.1495635707549927</v>
-      </c>
-      <c r="K31">
-        <v>0.6470820065884912</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1650,34 +1650,34 @@
         <v>40</v>
       </c>
       <c r="B32">
+        <v>-0.8863322451846074</v>
+      </c>
+      <c r="C32">
         <v>-1.098184409453512</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>-1.097207898126345</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>-1.000663259622701</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-1.000526030929623</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-1.801866008463963</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-1.800711092634546</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-1.697766293286139</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-1.201371413418374</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-0.7038529775848759</v>
-      </c>
-      <c r="K32">
-        <v>-1.29917432006167</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
         <v>0.0009765113271669179</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.09752114983081128</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.0976583785238887</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>-0.703681599010451</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>-0.702526683181034</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>-0.599581883832627</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>-0.1031870039648624</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>0.3943314318686362</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>-0.2009899106081576</v>
-      </c>
-      <c r="K33">
-        <v>0.1631459027032491</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
         <v>0.09654463850364436</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.09668186719672178</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>-0.7046581103376179</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>-0.7035031945082009</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>-0.6005583951597939</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>-0.1041635152920293</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.3933549205414693</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>-0.2019664219353245</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>0.1621693913760822</v>
-      </c>
-      <c r="K34">
-        <v>0.583764504599273</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,34 +1755,31 @@
         <v>43</v>
       </c>
       <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
         <v>0.000137228693077418</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>-0.8012027488412623</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>-0.8000478330118452</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>-0.6971030336634383</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>-0.2007081537956736</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>0.2968102820378249</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>-0.2985110604389689</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>0.06562475287243785</v>
-      </c>
-      <c r="J35">
-        <v>0.4872198660956286</v>
-      </c>
-      <c r="K35">
-        <v>0.3377368375363261</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1790,34 +1787,28 @@
         <v>44</v>
       </c>
       <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
         <v>-0.8013399775343397</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>-0.8001850617049227</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>-0.6972402623565157</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>-0.2008453824887511</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.2966730533447475</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>-0.2986482891320463</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>0.06548752417936043</v>
-      </c>
-      <c r="I36">
-        <v>0.4870826374025512</v>
-      </c>
-      <c r="J36">
-        <v>0.3375996088432487</v>
-      </c>
-      <c r="K36">
-        <v>0.3914067175763307</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1825,34 +1816,25 @@
         <v>45</v>
       </c>
       <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
         <v>0.001154915829417069</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0.104099715177824</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>0.6004945950455887</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>1.098013030879087</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>0.5026916884022934</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>0.8668275017137002</v>
-      </c>
-      <c r="H37">
-        <v>1.288422614936891</v>
-      </c>
-      <c r="I37">
-        <v>1.138939586377588</v>
-      </c>
-      <c r="J37">
-        <v>1.19274669511067</v>
-      </c>
-      <c r="K37">
-        <v>0.8679976599804031</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1860,34 +1842,22 @@
         <v>46</v>
       </c>
       <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
         <v>0.1029447993484069</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>0.5993396792161716</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>1.09685811504967</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>0.5015367725728763</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>0.8656725858842831</v>
-      </c>
-      <c r="G38">
-        <v>1.287267699107474</v>
-      </c>
-      <c r="H38">
-        <v>1.137784670548171</v>
-      </c>
-      <c r="I38">
-        <v>1.191591779281253</v>
-      </c>
-      <c r="J38">
-        <v>0.8668427441509861</v>
-      </c>
-      <c r="K38">
-        <v>1.202209749129522</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1895,34 +1865,19 @@
         <v>47</v>
       </c>
       <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
         <v>0.4963948798677646</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.9939133157012632</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.3985919732244694</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>0.7627277865358761</v>
-      </c>
-      <c r="F39">
-        <v>1.184322899759067</v>
-      </c>
-      <c r="G39">
-        <v>1.034839871199764</v>
-      </c>
-      <c r="H39">
-        <v>1.088646979932846</v>
-      </c>
-      <c r="I39">
-        <v>0.7638979448025791</v>
-      </c>
-      <c r="J39">
-        <v>1.099264949781116</v>
-      </c>
-      <c r="K39">
-        <v>1.192806071161371</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1930,34 +1885,16 @@
         <v>48</v>
       </c>
       <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>0.4975184358334985</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>-0.09780290664329527</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>0.2663329066681115</v>
-      </c>
-      <c r="E40">
-        <v>0.6879280198913023</v>
-      </c>
-      <c r="F40">
-        <v>0.5384449913319997</v>
-      </c>
-      <c r="G40">
-        <v>0.5922521000650818</v>
-      </c>
-      <c r="H40">
-        <v>0.2675030649348145</v>
-      </c>
-      <c r="I40">
-        <v>0.6028700699133509</v>
-      </c>
-      <c r="J40">
-        <v>0.6964111912936062</v>
-      </c>
-      <c r="K40">
-        <v>0.213564291979921</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1965,34 +1902,13 @@
         <v>49</v>
       </c>
       <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
         <v>-0.5953213424767938</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>-0.231185529165387</v>
-      </c>
-      <c r="D41">
-        <v>0.1904095840578037</v>
-      </c>
-      <c r="E41">
-        <v>0.04092655549850122</v>
-      </c>
-      <c r="F41">
-        <v>0.09473366423158319</v>
-      </c>
-      <c r="G41">
-        <v>-0.2300153708986841</v>
-      </c>
-      <c r="H41">
-        <v>0.1053516340798524</v>
-      </c>
-      <c r="I41">
-        <v>0.1988927554601076</v>
-      </c>
-      <c r="J41">
-        <v>-0.2839541438535775</v>
-      </c>
-      <c r="K41">
-        <v>-0.1743655612560957</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2000,34 +1916,10 @@
         <v>50</v>
       </c>
       <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
         <v>0.3641358133114068</v>
-      </c>
-      <c r="C42">
-        <v>0.7857309265345975</v>
-      </c>
-      <c r="D42">
-        <v>0.636247897975295</v>
-      </c>
-      <c r="E42">
-        <v>0.6900550067083771</v>
-      </c>
-      <c r="F42">
-        <v>0.3653059715781097</v>
-      </c>
-      <c r="G42">
-        <v>0.7006729765566462</v>
-      </c>
-      <c r="H42">
-        <v>0.7942140979369015</v>
-      </c>
-      <c r="I42">
-        <v>0.3113671986232163</v>
-      </c>
-      <c r="J42">
-        <v>0.4209557812206981</v>
-      </c>
-      <c r="K42">
-        <v>0.45011522372684</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2035,217 +1927,55 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.4215951132231908</v>
-      </c>
-      <c r="C43">
-        <v>0.2721120846638883</v>
-      </c>
-      <c r="D43">
-        <v>0.3259191933969702</v>
-      </c>
-      <c r="E43">
-        <v>0.00117015826670297</v>
-      </c>
-      <c r="F43">
-        <v>0.3365371632452395</v>
-      </c>
-      <c r="G43">
-        <v>0.4300782846254947</v>
-      </c>
-      <c r="H43">
-        <v>-0.0527686146881905</v>
-      </c>
-      <c r="I43">
-        <v>0.05681996790929134</v>
-      </c>
-      <c r="J43">
-        <v>0.08597941041543322</v>
-      </c>
-      <c r="K43">
-        <v>-0.1127150577741673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B44">
-        <v>-0.1494830285593025</v>
-      </c>
-      <c r="C44">
-        <v>-0.09567591982622053</v>
-      </c>
-      <c r="D44">
-        <v>-0.4204249549564878</v>
-      </c>
-      <c r="E44">
-        <v>-0.0850579499779513</v>
-      </c>
-      <c r="F44">
-        <v>0.008483171402303896</v>
-      </c>
-      <c r="G44">
-        <v>-0.4743637279113813</v>
-      </c>
-      <c r="H44">
-        <v>-0.3647751453138994</v>
-      </c>
-      <c r="I44">
-        <v>-0.3356157028077575</v>
-      </c>
-      <c r="J44">
-        <v>-0.5343101709973581</v>
-      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B45">
-        <v>0.05380710873308198</v>
-      </c>
-      <c r="C45">
-        <v>-0.2709419263971853</v>
-      </c>
-      <c r="D45">
-        <v>0.06442507858135121</v>
-      </c>
-      <c r="E45">
-        <v>0.1579661999616064</v>
-      </c>
-      <c r="F45">
-        <v>-0.3248806993520788</v>
-      </c>
-      <c r="G45">
-        <v>-0.2152921167545969</v>
-      </c>
-      <c r="H45">
-        <v>-0.186132674248455</v>
-      </c>
-      <c r="I45">
-        <v>-0.3848271424380556</v>
-      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B46">
-        <v>-0.3247490351302673</v>
-      </c>
-      <c r="C46">
-        <v>0.01061796984826924</v>
-      </c>
-      <c r="D46">
-        <v>0.1041590912285244</v>
-      </c>
-      <c r="E46">
-        <v>-0.3786878080851607</v>
-      </c>
-      <c r="F46">
-        <v>-0.2690992254876789</v>
-      </c>
-      <c r="G46">
-        <v>-0.239939782981537</v>
-      </c>
-      <c r="H46">
-        <v>-0.4386342511711376</v>
-      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B47">
-        <v>0.3353670049785365</v>
-      </c>
-      <c r="C47">
-        <v>0.4289081263587917</v>
-      </c>
-      <c r="D47">
-        <v>-0.05393877295489347</v>
-      </c>
-      <c r="E47">
-        <v>0.05564980964258837</v>
-      </c>
-      <c r="F47">
-        <v>0.08480925214873025</v>
-      </c>
-      <c r="G47">
-        <v>-0.1138852160408703</v>
-      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B48">
-        <v>0.09354112138025519</v>
-      </c>
-      <c r="C48">
-        <v>-0.38930577793343</v>
-      </c>
-      <c r="D48">
-        <v>-0.2797171953359481</v>
-      </c>
-      <c r="E48">
-        <v>-0.2505577528298062</v>
-      </c>
-      <c r="F48">
-        <v>-0.4492522210194068</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B49">
-        <v>-0.4828468993136852</v>
-      </c>
-      <c r="C49">
-        <v>-0.3732583167162034</v>
-      </c>
-      <c r="D49">
-        <v>-0.3440988742100615</v>
-      </c>
-      <c r="E49">
-        <v>-0.542793342399662</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B50">
-        <v>0.1095885825974818</v>
-      </c>
-      <c r="C50">
-        <v>0.1387480251036237</v>
-      </c>
-      <c r="D50">
-        <v>-0.05994644308597685</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B51">
-        <v>0.02915944250614189</v>
-      </c>
-      <c r="C51">
-        <v>-0.1695350256834587</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B52">
-        <v>-0.1986944681896006</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/OPA/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/OPA/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -1397,7 +1397,7 @@
         <v>0.9369206988335317</v>
       </c>
       <c r="K24">
-        <v>0.7250685345646271</v>
+        <v>-0.35579190771253</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1429,10 +1429,10 @@
         <v>-0.2615227567192306</v>
       </c>
       <c r="J25">
-        <v>-0.4733749209881353</v>
+        <v>-1.554235363265292</v>
       </c>
       <c r="K25">
-        <v>-0.4723984096609684</v>
+        <v>-0.2643100270664007</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1461,13 +1461,13 @@
         <v>-0.3863322451846073</v>
       </c>
       <c r="I26">
-        <v>-0.598184409453512</v>
+        <v>-1.679044851730669</v>
       </c>
       <c r="J26">
-        <v>-0.5972078981263451</v>
+        <v>-0.3891195155317774</v>
       </c>
       <c r="K26">
-        <v>-0.5006632596227008</v>
+        <v>1.820076036519961</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1493,16 +1493,16 @@
         <v>-0.1055254711007051</v>
       </c>
       <c r="H27">
-        <v>-0.3173776353696098</v>
+        <v>-1.398238077646767</v>
       </c>
       <c r="I27">
-        <v>-0.3164011240424429</v>
+        <v>-0.1083127414478752</v>
       </c>
       <c r="J27">
-        <v>-0.2198564855387985</v>
+        <v>2.100882810603863</v>
       </c>
       <c r="K27">
-        <v>-0.2197192568457211</v>
+        <v>-0.8049070241509069</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1525,19 +1525,19 @@
         <v>-1.686332245184607</v>
       </c>
       <c r="G28">
-        <v>-1.898184409453512</v>
+        <v>-2.979044851730669</v>
       </c>
       <c r="H28">
-        <v>-1.897207898126345</v>
+        <v>-1.689119515531778</v>
       </c>
       <c r="I28">
-        <v>-1.800663259622701</v>
+        <v>0.5200760365199608</v>
       </c>
       <c r="J28">
-        <v>-1.800526030929623</v>
+        <v>-2.385713798234809</v>
       </c>
       <c r="K28">
-        <v>-2.601866008463963</v>
+        <v>-2.026036591042376</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1557,22 +1557,22 @@
         <v>0.3642887816631912</v>
       </c>
       <c r="F29">
-        <v>0.1524366173942866</v>
+        <v>-0.9284238248828705</v>
       </c>
       <c r="G29">
-        <v>0.1534131287214535</v>
+        <v>0.3615015113160212</v>
       </c>
       <c r="H29">
-        <v>0.2499577672250979</v>
+        <v>2.570697063367759</v>
       </c>
       <c r="I29">
-        <v>0.2500949959181753</v>
+        <v>-0.3350927713870104</v>
       </c>
       <c r="J29">
-        <v>-0.5512449816161644</v>
+        <v>0.0245844358054228</v>
       </c>
       <c r="K29">
-        <v>-0.5500900657867474</v>
+        <v>-0.3732558837842244</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1589,25 +1589,25 @@
         <v>0.4153374691715466</v>
       </c>
       <c r="E30">
-        <v>0.2034853049026419</v>
+        <v>-0.8773751373745151</v>
       </c>
       <c r="F30">
-        <v>0.2044618162298089</v>
+        <v>0.4125501988243765</v>
       </c>
       <c r="G30">
-        <v>0.3010064547334532</v>
+        <v>2.621745750876115</v>
       </c>
       <c r="H30">
-        <v>0.3011436834265306</v>
+        <v>-0.2840440838786551</v>
       </c>
       <c r="I30">
-        <v>-0.5001962941078091</v>
+        <v>0.07563312331377814</v>
       </c>
       <c r="J30">
-        <v>-0.499041378278392</v>
+        <v>-0.322207196275869</v>
       </c>
       <c r="K30">
-        <v>-0.3960965789299851</v>
+        <v>3.13844758671037</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1621,28 +1621,28 @@
         <v>0.4646027389887597</v>
       </c>
       <c r="D31">
-        <v>0.2527505747198551</v>
+        <v>-0.828109867557302</v>
       </c>
       <c r="E31">
-        <v>0.253727086047022</v>
+        <v>0.4618154686415896</v>
       </c>
       <c r="F31">
-        <v>0.3502717245506664</v>
+        <v>2.671011020693328</v>
       </c>
       <c r="G31">
-        <v>0.3504089532437438</v>
+        <v>-0.234778814061442</v>
       </c>
       <c r="H31">
-        <v>-0.4509310242905959</v>
+        <v>0.1248983931309913</v>
       </c>
       <c r="I31">
-        <v>-0.4497761084611789</v>
+        <v>-0.2729419264586559</v>
       </c>
       <c r="J31">
-        <v>-0.3468313091127719</v>
+        <v>3.187712856527583</v>
       </c>
       <c r="K31">
-        <v>0.1495635707549927</v>
+        <v>0.257529852677735</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1653,31 +1653,31 @@
         <v>-0.8863322451846074</v>
       </c>
       <c r="C32">
-        <v>-1.098184409453512</v>
+        <v>-2.179044851730669</v>
       </c>
       <c r="D32">
-        <v>-1.097207898126345</v>
+        <v>-0.8891195155317775</v>
       </c>
       <c r="E32">
-        <v>-1.000663259622701</v>
+        <v>1.320076036519961</v>
       </c>
       <c r="F32">
-        <v>-1.000526030929623</v>
+        <v>-1.585713798234809</v>
       </c>
       <c r="G32">
-        <v>-1.801866008463963</v>
+        <v>-1.226036591042376</v>
       </c>
       <c r="H32">
-        <v>-1.800711092634546</v>
+        <v>-1.623876910632023</v>
       </c>
       <c r="I32">
-        <v>-1.697766293286139</v>
+        <v>1.836777872354216</v>
       </c>
       <c r="J32">
-        <v>-1.201371413418374</v>
+        <v>-1.093405131495632</v>
       </c>
       <c r="K32">
-        <v>-0.7038529775848759</v>
+        <v>-1.329975481959951</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>-1.292712606546062</v>
       </c>
       <c r="C33">
-        <v>0.0009765113271669179</v>
+        <v>-0.002787270347170079</v>
       </c>
       <c r="D33">
-        <v>0.09752114983081128</v>
+        <v>2.206408281704568</v>
       </c>
       <c r="E33">
-        <v>0.0976583785238887</v>
+        <v>-0.6993815530502017</v>
       </c>
       <c r="F33">
-        <v>-0.703681599010451</v>
+        <v>-0.3397043458577684</v>
       </c>
       <c r="G33">
-        <v>-0.702526683181034</v>
+        <v>-0.7375446654474156</v>
       </c>
       <c r="H33">
-        <v>-0.599581883832627</v>
+        <v>2.723110117538823</v>
       </c>
       <c r="I33">
-        <v>-0.1031870039648624</v>
+        <v>-0.2070728863110247</v>
       </c>
       <c r="J33">
-        <v>0.3943314318686362</v>
+        <v>-0.4436432367753436</v>
       </c>
       <c r="K33">
-        <v>-0.2009899106081576</v>
+        <v>-0.1180488047942703</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1.289925336198892</v>
       </c>
       <c r="C34">
-        <v>0.09654463850364436</v>
+        <v>3.49912088825063</v>
       </c>
       <c r="D34">
-        <v>0.09668186719672178</v>
+        <v>0.59333105349586</v>
       </c>
       <c r="E34">
-        <v>-0.7046581103376179</v>
+        <v>0.9530082606882933</v>
       </c>
       <c r="F34">
-        <v>-0.7035031945082009</v>
+        <v>0.5551679410986461</v>
       </c>
       <c r="G34">
-        <v>-0.6005583951597939</v>
+        <v>4.015822724084884</v>
       </c>
       <c r="H34">
-        <v>-0.1041635152920293</v>
+        <v>1.085639720235037</v>
       </c>
       <c r="I34">
-        <v>0.3933549205414693</v>
+        <v>0.8490693697707181</v>
       </c>
       <c r="J34">
-        <v>-0.2019664219353245</v>
+        <v>1.174663801751791</v>
       </c>
       <c r="K34">
-        <v>0.1621693913760822</v>
+        <v>1.738389274431257</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,31 +1755,34 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>2.209195552051738</v>
       </c>
       <c r="C35">
-        <v>0.000137228693077418</v>
+        <v>-0.6965942827030316</v>
       </c>
       <c r="D35">
-        <v>-0.8012027488412623</v>
+        <v>-0.3369170755105984</v>
       </c>
       <c r="E35">
-        <v>-0.8000478330118452</v>
+        <v>-0.7347573951002455</v>
       </c>
       <c r="F35">
-        <v>-0.6971030336634383</v>
+        <v>2.725897387885993</v>
       </c>
       <c r="G35">
-        <v>-0.2007081537956736</v>
+        <v>-0.2042856159638546</v>
       </c>
       <c r="H35">
-        <v>0.2968102820378249</v>
+        <v>-0.4408559664281735</v>
       </c>
       <c r="I35">
-        <v>-0.2985110604389689</v>
+        <v>-0.1152615344471002</v>
       </c>
       <c r="J35">
-        <v>0.06562475287243785</v>
+        <v>0.448463938232365</v>
+      </c>
+      <c r="K35">
+        <v>0.162308343228304</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1787,28 +1790,34 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>-2.90578983475477</v>
       </c>
       <c r="C36">
-        <v>-0.8013399775343397</v>
+        <v>-2.546112627562337</v>
       </c>
       <c r="D36">
-        <v>-0.8001850617049227</v>
+        <v>-2.943952947151984</v>
       </c>
       <c r="E36">
-        <v>-0.6972402623565157</v>
+        <v>0.516701835834255</v>
       </c>
       <c r="F36">
-        <v>-0.2008453824887511</v>
+        <v>-2.413481168015593</v>
       </c>
       <c r="G36">
-        <v>0.2966730533447475</v>
+        <v>-2.650051518479912</v>
       </c>
       <c r="H36">
-        <v>-0.2986482891320463</v>
+        <v>-2.324457086498839</v>
       </c>
       <c r="I36">
-        <v>0.06548752417936043</v>
+        <v>-1.760731613819373</v>
+      </c>
+      <c r="J36">
+        <v>-2.046887208823434</v>
+      </c>
+      <c r="K36">
+        <v>-1.925041643302435</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1816,25 +1825,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.3596772071924332</v>
       </c>
       <c r="C37">
-        <v>0.001154915829417069</v>
+        <v>-0.03816311239721393</v>
       </c>
       <c r="D37">
-        <v>0.104099715177824</v>
+        <v>3.422491670589025</v>
       </c>
       <c r="E37">
-        <v>0.6004945950455887</v>
+        <v>0.4923086667391769</v>
       </c>
       <c r="F37">
-        <v>1.098013030879087</v>
+        <v>0.2557383162748581</v>
       </c>
       <c r="G37">
-        <v>0.5026916884022934</v>
+        <v>0.5813327482559314</v>
       </c>
       <c r="H37">
-        <v>0.8668275017137002</v>
+        <v>1.145058220935397</v>
+      </c>
+      <c r="I37">
+        <v>0.8589026259313355</v>
+      </c>
+      <c r="J37">
+        <v>0.9807481914523348</v>
+      </c>
+      <c r="K37">
+        <v>0.5470686472140469</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1842,22 +1860,34 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>-0.3978403195896472</v>
       </c>
       <c r="C38">
-        <v>0.1029447993484069</v>
+        <v>3.062814463396592</v>
       </c>
       <c r="D38">
-        <v>0.5993396792161716</v>
+        <v>0.1326314595467437</v>
       </c>
       <c r="E38">
-        <v>1.09685811504967</v>
+        <v>-0.1039388909175751</v>
       </c>
       <c r="F38">
-        <v>0.5015367725728763</v>
+        <v>0.2216555410634982</v>
       </c>
       <c r="G38">
-        <v>0.8656725858842831</v>
+        <v>0.7853810137429633</v>
+      </c>
+      <c r="H38">
+        <v>0.4992254187389023</v>
+      </c>
+      <c r="I38">
+        <v>0.6210709842599016</v>
+      </c>
+      <c r="J38">
+        <v>0.1873914400216137</v>
+      </c>
+      <c r="K38">
+        <v>2.073267678908721</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1865,19 +1895,34 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>3.460654782986239</v>
       </c>
       <c r="C39">
-        <v>0.4963948798677646</v>
+        <v>0.5304717791363909</v>
       </c>
       <c r="D39">
-        <v>0.9939133157012632</v>
+        <v>0.293901428672072</v>
       </c>
       <c r="E39">
-        <v>0.3985919732244694</v>
+        <v>0.6194958606531453</v>
       </c>
       <c r="F39">
-        <v>0.7627277865358761</v>
+        <v>1.18322133333261</v>
+      </c>
+      <c r="G39">
+        <v>0.8970657383285494</v>
+      </c>
+      <c r="H39">
+        <v>1.018911303849549</v>
+      </c>
+      <c r="I39">
+        <v>0.5852317596112608</v>
+      </c>
+      <c r="J39">
+        <v>2.471107998498368</v>
+      </c>
+      <c r="K39">
+        <v>0.7675489330019185</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1885,16 +1930,34 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>-2.930183003849848</v>
       </c>
       <c r="C40">
-        <v>0.4975184358334985</v>
+        <v>-3.166753354314167</v>
       </c>
       <c r="D40">
-        <v>-0.09780290664329527</v>
+        <v>-2.841158922333094</v>
       </c>
       <c r="E40">
-        <v>0.2663329066681115</v>
+        <v>-2.277433449653628</v>
+      </c>
+      <c r="F40">
+        <v>-2.563589044657689</v>
+      </c>
+      <c r="G40">
+        <v>-2.44174347913669</v>
+      </c>
+      <c r="H40">
+        <v>-2.875423023374978</v>
+      </c>
+      <c r="I40">
+        <v>-0.9895467844878709</v>
+      </c>
+      <c r="J40">
+        <v>-2.69310584998432</v>
+      </c>
+      <c r="K40">
+        <v>-2.748687381508546</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1902,13 +1965,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>-0.2365703504643188</v>
       </c>
       <c r="C41">
-        <v>-0.5953213424767938</v>
+        <v>0.08902408151675445</v>
       </c>
       <c r="D41">
-        <v>-0.231185529165387</v>
+        <v>0.6527495541962196</v>
+      </c>
+      <c r="E41">
+        <v>0.3665939591921586</v>
+      </c>
+      <c r="F41">
+        <v>0.4884395247131579</v>
+      </c>
+      <c r="G41">
+        <v>0.05475998047486996</v>
+      </c>
+      <c r="H41">
+        <v>1.940636219361977</v>
+      </c>
+      <c r="I41">
+        <v>0.2370771538655276</v>
+      </c>
+      <c r="J41">
+        <v>0.181495622341302</v>
+      </c>
+      <c r="K41">
+        <v>0.9684454849153923</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1916,10 +2000,34 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>0.3255944319810733</v>
       </c>
       <c r="C42">
-        <v>0.3641358133114068</v>
+        <v>0.8893199046605385</v>
+      </c>
+      <c r="D42">
+        <v>0.6031643096564774</v>
+      </c>
+      <c r="E42">
+        <v>0.7250098751774767</v>
+      </c>
+      <c r="F42">
+        <v>0.2913303309391888</v>
+      </c>
+      <c r="G42">
+        <v>2.177206569826296</v>
+      </c>
+      <c r="H42">
+        <v>0.4736475043298465</v>
+      </c>
+      <c r="I42">
+        <v>0.4180659728056209</v>
+      </c>
+      <c r="J42">
+        <v>1.205015835379711</v>
+      </c>
+      <c r="K42">
+        <v>-0.9846815754178531</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1927,55 +2035,217 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.5637254726794652</v>
+      </c>
+      <c r="C43">
+        <v>0.2775698776754041</v>
+      </c>
+      <c r="D43">
+        <v>0.3994154431964034</v>
+      </c>
+      <c r="E43">
+        <v>-0.03426410104188449</v>
+      </c>
+      <c r="F43">
+        <v>1.851612137845223</v>
+      </c>
+      <c r="G43">
+        <v>0.1480530723487732</v>
+      </c>
+      <c r="H43">
+        <v>0.09247154082454756</v>
+      </c>
+      <c r="I43">
+        <v>0.8794214033986378</v>
+      </c>
+      <c r="J43">
+        <v>-1.310276007398926</v>
+      </c>
+      <c r="K43">
+        <v>-0.4722849543269805</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B44">
+        <v>-0.286155595004061</v>
+      </c>
+      <c r="C44">
+        <v>-0.1643100294830617</v>
+      </c>
+      <c r="D44">
+        <v>-0.5979895737213496</v>
+      </c>
+      <c r="E44">
+        <v>1.287886665165757</v>
+      </c>
+      <c r="F44">
+        <v>-0.415672400330692</v>
+      </c>
+      <c r="G44">
+        <v>-0.4712539318549176</v>
+      </c>
+      <c r="H44">
+        <v>0.3156959307191727</v>
+      </c>
+      <c r="I44">
+        <v>-1.874001480078392</v>
+      </c>
+      <c r="J44">
+        <v>-1.036010427006446</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B45">
+        <v>0.1218455655209993</v>
+      </c>
+      <c r="C45">
+        <v>-0.3118339787172886</v>
+      </c>
+      <c r="D45">
+        <v>1.574042260169819</v>
+      </c>
+      <c r="E45">
+        <v>-0.129516805326631</v>
+      </c>
+      <c r="F45">
+        <v>-0.1850983368508566</v>
+      </c>
+      <c r="G45">
+        <v>0.6018515257232337</v>
+      </c>
+      <c r="H45">
+        <v>-1.58784588507433</v>
+      </c>
+      <c r="I45">
+        <v>-0.7498548320023846</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B46">
+        <v>-0.4336795442382879</v>
+      </c>
+      <c r="C46">
+        <v>1.452196694648819</v>
+      </c>
+      <c r="D46">
+        <v>-0.2513623708476302</v>
+      </c>
+      <c r="E46">
+        <v>-0.3069439023718559</v>
+      </c>
+      <c r="F46">
+        <v>0.4800059602022344</v>
+      </c>
+      <c r="G46">
+        <v>-1.70969145059533</v>
+      </c>
+      <c r="H46">
+        <v>-0.8717003975233839</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B47">
+        <v>1.885876238887107</v>
+      </c>
+      <c r="C47">
+        <v>0.1823171733906577</v>
+      </c>
+      <c r="D47">
+        <v>0.126735641866432</v>
+      </c>
+      <c r="E47">
+        <v>0.9136855044405223</v>
+      </c>
+      <c r="F47">
+        <v>-1.276011906357042</v>
+      </c>
+      <c r="G47">
+        <v>-0.438020853285096</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>-1.703559065496449</v>
+      </c>
+      <c r="C48">
+        <v>-1.759140597020675</v>
+      </c>
+      <c r="D48">
+        <v>-0.9721907344465848</v>
+      </c>
+      <c r="E48">
+        <v>-3.161888145244149</v>
+      </c>
+      <c r="F48">
+        <v>-2.323897092172203</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>-0.05558153152422562</v>
+      </c>
+      <c r="C49">
+        <v>0.7313683310498647</v>
+      </c>
+      <c r="D49">
+        <v>-1.4583290797477</v>
+      </c>
+      <c r="E49">
+        <v>-0.6203380266757537</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>0.7869498625740903</v>
+      </c>
+      <c r="C50">
+        <v>-1.402747548223474</v>
+      </c>
+      <c r="D50">
+        <v>-0.564756495151528</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>-2.189697410797564</v>
+      </c>
+      <c r="C51">
+        <v>-1.351706357725618</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>0.8379910530719459</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/OPA/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/OPA/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -614,21 +614,6 @@
       <c r="F2">
         <v>1.103499892488202</v>
       </c>
-      <c r="G2">
-        <v>0.1965604259001879</v>
-      </c>
-      <c r="H2">
-        <v>0.5165088048693751</v>
-      </c>
-      <c r="I2">
-        <v>0.2317110028784559</v>
-      </c>
-      <c r="J2">
-        <v>0.97137660635697</v>
-      </c>
-      <c r="K2">
-        <v>2.833785504382945</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -655,15 +640,6 @@
       <c r="H3">
         <v>-5.263997447545804</v>
       </c>
-      <c r="I3">
-        <v>-3.401588549519829</v>
-      </c>
-      <c r="J3">
-        <v>-5.106380040077553</v>
-      </c>
-      <c r="K3">
-        <v>-5.083794702064267</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
@@ -684,21 +660,6 @@
       <c r="F4">
         <v>0.7237539532769548</v>
       </c>
-      <c r="G4">
-        <v>2.58616285130293</v>
-      </c>
-      <c r="H4">
-        <v>0.8813713607452058</v>
-      </c>
-      <c r="I4">
-        <v>0.9039566987584917</v>
-      </c>
-      <c r="J4">
-        <v>0.8002784207378677</v>
-      </c>
-      <c r="K4">
-        <v>1.36307484398499</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
@@ -725,15 +686,6 @@
       <c r="H5">
         <v>0.851340647917695</v>
       </c>
-      <c r="I5">
-        <v>1.414137071164817</v>
-      </c>
-      <c r="J5">
-        <v>1.392307673293346</v>
-      </c>
-      <c r="K5">
-        <v>0.7493790419838151</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
@@ -754,21 +706,6 @@
       <c r="F6">
         <v>0.816190070939427</v>
       </c>
-      <c r="G6">
-        <v>1.378986494186549</v>
-      </c>
-      <c r="H6">
-        <v>1.357157096315078</v>
-      </c>
-      <c r="I6">
-        <v>0.714228465005547</v>
-      </c>
-      <c r="J6">
-        <v>0.5695857650729579</v>
-      </c>
-      <c r="K6">
-        <v>3.811838006236286</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
@@ -795,15 +732,6 @@
       <c r="H7">
         <v>-2.032488736431532</v>
       </c>
-      <c r="I7">
-        <v>1.209763504731797</v>
-      </c>
-      <c r="J7">
-        <v>-1.137777541243437</v>
-      </c>
-      <c r="K7">
-        <v>-1.343488652261143</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
@@ -824,21 +752,6 @@
       <c r="F8">
         <v>-0.3502825838870931</v>
       </c>
-      <c r="G8">
-        <v>2.891969657276235</v>
-      </c>
-      <c r="H8">
-        <v>0.5444286113010011</v>
-      </c>
-      <c r="I8">
-        <v>0.3387175002832952</v>
-      </c>
-      <c r="J8">
-        <v>0.2301865268944852</v>
-      </c>
-      <c r="K8">
-        <v>2.818230912215555</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
@@ -865,15 +778,6 @@
       <c r="H9">
         <v>-0.2289316183320129</v>
       </c>
-      <c r="I9">
-        <v>2.359112766989057</v>
-      </c>
-      <c r="J9">
-        <v>-0.2276997119704729</v>
-      </c>
-      <c r="K9">
-        <v>-0.257792413836597</v>
-      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
@@ -894,21 +798,6 @@
       <c r="F10">
         <v>0.4358264108489891</v>
       </c>
-      <c r="G10">
-        <v>3.023870796170059</v>
-      </c>
-      <c r="H10">
-        <v>0.4370583172105291</v>
-      </c>
-      <c r="I10">
-        <v>0.406965615344405</v>
-      </c>
-      <c r="J10">
-        <v>0.7374333217058651</v>
-      </c>
-      <c r="K10">
-        <v>2.640083340111744</v>
-      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
@@ -935,15 +824,6 @@
       <c r="H11">
         <v>-2.360176219524874</v>
       </c>
-      <c r="I11">
-        <v>-0.4575262011189949</v>
-      </c>
-      <c r="J11">
-        <v>-1.267324577463256</v>
-      </c>
-      <c r="K11">
-        <v>-1.377012768719666</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
@@ -964,21 +844,6 @@
       <c r="F12">
         <v>0.193075937468066</v>
       </c>
-      <c r="G12">
-        <v>2.095725955873945</v>
-      </c>
-      <c r="H12">
-        <v>1.285927579529684</v>
-      </c>
-      <c r="I12">
-        <v>1.176239388273274</v>
-      </c>
-      <c r="J12">
-        <v>1.103571074638836</v>
-      </c>
-      <c r="K12">
-        <v>0.6489427173271165</v>
-      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -1005,15 +870,6 @@
       <c r="H13">
         <v>-1.375942337293424</v>
       </c>
-      <c r="I13">
-        <v>-1.830570694605143</v>
-      </c>
-      <c r="J13">
-        <v>-1.80197332782953</v>
-      </c>
-      <c r="K13">
-        <v>-1.735115714123254</v>
-      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -1034,21 +890,6 @@
       <c r="F14">
         <v>1.24096284353223</v>
       </c>
-      <c r="G14">
-        <v>0.7863344862205106</v>
-      </c>
-      <c r="H14">
-        <v>0.8149318529961245</v>
-      </c>
-      <c r="I14">
-        <v>0.8817894667024002</v>
-      </c>
-      <c r="J14">
-        <v>0.8314375835927588</v>
-      </c>
-      <c r="K14">
-        <v>1.240812138641388</v>
-      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -1075,15 +916,6 @@
       <c r="H15">
         <v>-1.40168014117458</v>
       </c>
-      <c r="I15">
-        <v>-0.9923055861259513</v>
-      </c>
-      <c r="J15">
-        <v>-1.473769682314554</v>
-      </c>
-      <c r="K15">
-        <v>-1.339363038277284</v>
-      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -1104,21 +936,6 @@
       <c r="F16">
         <v>-0.482193573573909</v>
       </c>
-      <c r="G16">
-        <v>-0.07281901852528003</v>
-      </c>
-      <c r="H16">
-        <v>-0.5542831147138827</v>
-      </c>
-      <c r="I16">
-        <v>-0.4198764706766128</v>
-      </c>
-      <c r="J16">
-        <v>-0.1512680991836675</v>
-      </c>
-      <c r="K16">
-        <v>-0.6445801584241337</v>
-      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
@@ -1145,15 +962,6 @@
       <c r="H17">
         <v>0.3760285717624896</v>
       </c>
-      <c r="I17">
-        <v>-0.1172834874779767</v>
-      </c>
-      <c r="J17">
-        <v>-0.1663276402525469</v>
-      </c>
-      <c r="K17">
-        <v>0.06781952355716214</v>
-      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
@@ -1186,9 +994,6 @@
       <c r="J18">
         <v>0.6599686510253946</v>
       </c>
-      <c r="K18">
-        <v>-0.9176804360672572</v>
-      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
@@ -1215,15 +1020,6 @@
       <c r="H19">
         <v>0.3009459790864071</v>
       </c>
-      <c r="I19">
-        <v>-1.276703108006245</v>
-      </c>
-      <c r="J19">
-        <v>-0.0782596524534824</v>
-      </c>
-      <c r="K19">
-        <v>0.0465498360118943</v>
-      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
@@ -1256,9 +1052,6 @@
       <c r="J20">
         <v>0.1128005140793248</v>
       </c>
-      <c r="K20">
-        <v>1.693607288163227</v>
-      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
@@ -1285,15 +1078,6 @@
       <c r="H21">
         <v>0.3375042018268459</v>
       </c>
-      <c r="I21">
-        <v>1.918310975910748</v>
-      </c>
-      <c r="J21">
-        <v>-0.1323100509370505</v>
-      </c>
-      <c r="K21">
-        <v>-0.1833587384454058</v>
-      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
@@ -1326,9 +1110,6 @@
       <c r="J22">
         <v>-0.4177270192977578</v>
       </c>
-      <c r="K22">
-        <v>0.9332079648756093</v>
-      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -1358,12 +1139,6 @@
       <c r="I23">
         <v>-1.10533112724788</v>
       </c>
-      <c r="J23">
-        <v>0.2456038569254872</v>
-      </c>
-      <c r="K23">
-        <v>-0.6407283882591202</v>
-      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
@@ -1390,15 +1165,6 @@
       <c r="H24">
         <v>0.472317959844772</v>
       </c>
-      <c r="I24">
-        <v>1.823252944018139</v>
-      </c>
-      <c r="J24">
-        <v>0.9369206988335317</v>
-      </c>
-      <c r="K24">
-        <v>-0.35579190771253</v>
-      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
@@ -1466,9 +1232,6 @@
       <c r="J26">
         <v>-0.3891195155317774</v>
       </c>
-      <c r="K26">
-        <v>1.820076036519961</v>
-      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
@@ -1498,12 +1261,6 @@
       <c r="I27">
         <v>-0.1083127414478752</v>
       </c>
-      <c r="J27">
-        <v>2.100882810603863</v>
-      </c>
-      <c r="K27">
-        <v>-0.8049070241509069</v>
-      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
@@ -1530,15 +1287,6 @@
       <c r="H28">
         <v>-1.689119515531778</v>
       </c>
-      <c r="I28">
-        <v>0.5200760365199608</v>
-      </c>
-      <c r="J28">
-        <v>-2.385713798234809</v>
-      </c>
-      <c r="K28">
-        <v>-2.026036591042376</v>
-      </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
@@ -1606,9 +1354,6 @@
       <c r="J30">
         <v>-0.322207196275869</v>
       </c>
-      <c r="K30">
-        <v>3.13844758671037</v>
-      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
@@ -1638,12 +1383,6 @@
       <c r="I31">
         <v>-0.2729419264586559</v>
       </c>
-      <c r="J31">
-        <v>3.187712856527583</v>
-      </c>
-      <c r="K31">
-        <v>0.257529852677735</v>
-      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
@@ -1670,15 +1409,6 @@
       <c r="H32">
         <v>-1.623876910632023</v>
       </c>
-      <c r="I32">
-        <v>1.836777872354216</v>
-      </c>
-      <c r="J32">
-        <v>-1.093405131495632</v>
-      </c>
-      <c r="K32">
-        <v>-1.329975481959951</v>
-      </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
@@ -1746,9 +1476,6 @@
       <c r="J34">
         <v>1.174663801751791</v>
       </c>
-      <c r="K34">
-        <v>1.738389274431257</v>
-      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
@@ -1778,12 +1505,6 @@
       <c r="I35">
         <v>-0.1152615344471002</v>
       </c>
-      <c r="J35">
-        <v>0.448463938232365</v>
-      </c>
-      <c r="K35">
-        <v>0.162308343228304</v>
-      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
@@ -1810,15 +1531,6 @@
       <c r="H36">
         <v>-2.324457086498839</v>
       </c>
-      <c r="I36">
-        <v>-1.760731613819373</v>
-      </c>
-      <c r="J36">
-        <v>-2.046887208823434</v>
-      </c>
-      <c r="K36">
-        <v>-1.925041643302435</v>
-      </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
@@ -1886,9 +1598,6 @@
       <c r="J38">
         <v>0.1873914400216137</v>
       </c>
-      <c r="K38">
-        <v>2.073267678908721</v>
-      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
@@ -1918,12 +1627,6 @@
       <c r="I39">
         <v>0.5852317596112608</v>
       </c>
-      <c r="J39">
-        <v>2.471107998498368</v>
-      </c>
-      <c r="K39">
-        <v>0.7675489330019185</v>
-      </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
@@ -1950,15 +1653,6 @@
       <c r="H40">
         <v>-2.875423023374978</v>
       </c>
-      <c r="I40">
-        <v>-0.9895467844878709</v>
-      </c>
-      <c r="J40">
-        <v>-2.69310584998432</v>
-      </c>
-      <c r="K40">
-        <v>-2.748687381508546</v>
-      </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
@@ -2026,9 +1720,6 @@
       <c r="J42">
         <v>1.205015835379711</v>
       </c>
-      <c r="K42">
-        <v>-0.9846815754178531</v>
-      </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
@@ -2058,12 +1749,6 @@
       <c r="I43">
         <v>0.8794214033986378</v>
       </c>
-      <c r="J43">
-        <v>-1.310276007398926</v>
-      </c>
-      <c r="K43">
-        <v>-0.4722849543269805</v>
-      </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
@@ -2089,12 +1774,6 @@
       </c>
       <c r="H44">
         <v>0.3156959307191727</v>
-      </c>
-      <c r="I44">
-        <v>-1.874001480078392</v>
-      </c>
-      <c r="J44">
-        <v>-1.036010427006446</v>
       </c>
     </row>
     <row r="45" spans="1:11">
